--- a/src/public/templates/buyout_template.xlsx
+++ b/src/public/templates/buyout_template.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F3D5D48-8E25-4E7E-AB7F-B750F9679036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Наложенный платёж" sheetId="1" r:id="rId1"/>
@@ -195,8 +199,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -683,6 +687,192 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -710,18 +900,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -736,180 +914,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2040,14 +2044,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DA53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="BT56" sqref="BT56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="CH59" sqref="CH59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="12" width="1.28515625" style="1" customWidth="1"/>
@@ -2072,7 +2076,7 @@
     <col min="107" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" ht="8.1" customHeight="1">
+    <row r="1" spans="1:105" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2179,7 +2183,7 @@
       <c r="CZ1" s="3"/>
       <c r="DA1" s="4"/>
     </row>
-    <row r="2" spans="1:105" ht="8.1" customHeight="1">
+    <row r="2" spans="1:105" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -2286,92 +2290,92 @@
       <c r="CZ2" s="7"/>
       <c r="DA2" s="8"/>
     </row>
-    <row r="3" spans="1:105" ht="16.5" customHeight="1">
+    <row r="3" spans="1:105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="62"/>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="62"/>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="62"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
-      <c r="BR3" s="62"/>
-      <c r="BS3" s="62"/>
-      <c r="BT3" s="62"/>
-      <c r="BU3" s="62"/>
-      <c r="BV3" s="62"/>
-      <c r="BW3" s="61" t="s">
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="55"/>
+      <c r="BA3" s="55"/>
+      <c r="BB3" s="55"/>
+      <c r="BC3" s="55"/>
+      <c r="BD3" s="55"/>
+      <c r="BE3" s="55"/>
+      <c r="BF3" s="55"/>
+      <c r="BG3" s="55"/>
+      <c r="BH3" s="55"/>
+      <c r="BI3" s="55"/>
+      <c r="BJ3" s="55"/>
+      <c r="BK3" s="55"/>
+      <c r="BL3" s="55"/>
+      <c r="BM3" s="55"/>
+      <c r="BN3" s="55"/>
+      <c r="BO3" s="55"/>
+      <c r="BP3" s="55"/>
+      <c r="BQ3" s="55"/>
+      <c r="BR3" s="55"/>
+      <c r="BS3" s="55"/>
+      <c r="BT3" s="55"/>
+      <c r="BU3" s="55"/>
+      <c r="BV3" s="55"/>
+      <c r="BW3" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="BX3" s="62"/>
-      <c r="BY3" s="62"/>
-      <c r="BZ3" s="62"/>
-      <c r="CA3" s="62"/>
-      <c r="CB3" s="62"/>
-      <c r="CC3" s="62"/>
+      <c r="BX3" s="55"/>
+      <c r="BY3" s="55"/>
+      <c r="BZ3" s="55"/>
+      <c r="CA3" s="55"/>
+      <c r="CB3" s="55"/>
+      <c r="CC3" s="55"/>
       <c r="CD3" s="12"/>
       <c r="CE3" s="9"/>
       <c r="CF3" s="10"/>
@@ -2397,90 +2401,90 @@
       <c r="CZ3" s="10"/>
       <c r="DA3" s="12"/>
     </row>
-    <row r="4" spans="1:105" ht="12.75" customHeight="1">
+    <row r="4" spans="1:105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
       <c r="R4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
       <c r="U4" s="15"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="66"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="66"/>
-      <c r="AR4" s="66"/>
-      <c r="AS4" s="66"/>
-      <c r="AT4" s="66"/>
-      <c r="AU4" s="66"/>
-      <c r="AV4" s="66"/>
-      <c r="AW4" s="66"/>
-      <c r="AX4" s="66"/>
-      <c r="AY4" s="66"/>
-      <c r="AZ4" s="66"/>
-      <c r="BA4" s="66"/>
-      <c r="BB4" s="66"/>
-      <c r="BC4" s="66"/>
-      <c r="BD4" s="66"/>
-      <c r="BE4" s="66"/>
-      <c r="BF4" s="66"/>
-      <c r="BG4" s="66"/>
-      <c r="BH4" s="66"/>
-      <c r="BI4" s="66"/>
-      <c r="BJ4" s="66"/>
-      <c r="BK4" s="66"/>
-      <c r="BL4" s="66"/>
-      <c r="BM4" s="66"/>
-      <c r="BN4" s="66"/>
-      <c r="BO4" s="66"/>
-      <c r="BP4" s="66"/>
-      <c r="BQ4" s="66"/>
-      <c r="BR4" s="66"/>
-      <c r="BS4" s="66"/>
-      <c r="BT4" s="66"/>
-      <c r="BU4" s="66"/>
-      <c r="BV4" s="66"/>
-      <c r="BW4" s="66"/>
-      <c r="BX4" s="66"/>
-      <c r="BY4" s="66"/>
-      <c r="BZ4" s="66"/>
-      <c r="CA4" s="66"/>
-      <c r="CB4" s="66"/>
-      <c r="CC4" s="67"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="124"/>
+      <c r="AI4" s="124"/>
+      <c r="AJ4" s="124"/>
+      <c r="AK4" s="124"/>
+      <c r="AL4" s="124"/>
+      <c r="AM4" s="124"/>
+      <c r="AN4" s="124"/>
+      <c r="AO4" s="124"/>
+      <c r="AP4" s="124"/>
+      <c r="AQ4" s="124"/>
+      <c r="AR4" s="124"/>
+      <c r="AS4" s="124"/>
+      <c r="AT4" s="124"/>
+      <c r="AU4" s="124"/>
+      <c r="AV4" s="124"/>
+      <c r="AW4" s="124"/>
+      <c r="AX4" s="124"/>
+      <c r="AY4" s="124"/>
+      <c r="AZ4" s="124"/>
+      <c r="BA4" s="124"/>
+      <c r="BB4" s="124"/>
+      <c r="BC4" s="124"/>
+      <c r="BD4" s="124"/>
+      <c r="BE4" s="124"/>
+      <c r="BF4" s="124"/>
+      <c r="BG4" s="124"/>
+      <c r="BH4" s="124"/>
+      <c r="BI4" s="124"/>
+      <c r="BJ4" s="124"/>
+      <c r="BK4" s="124"/>
+      <c r="BL4" s="124"/>
+      <c r="BM4" s="124"/>
+      <c r="BN4" s="124"/>
+      <c r="BO4" s="124"/>
+      <c r="BP4" s="124"/>
+      <c r="BQ4" s="124"/>
+      <c r="BR4" s="124"/>
+      <c r="BS4" s="124"/>
+      <c r="BT4" s="124"/>
+      <c r="BU4" s="124"/>
+      <c r="BV4" s="124"/>
+      <c r="BW4" s="124"/>
+      <c r="BX4" s="124"/>
+      <c r="BY4" s="124"/>
+      <c r="BZ4" s="124"/>
+      <c r="CA4" s="124"/>
+      <c r="CB4" s="124"/>
+      <c r="CC4" s="125"/>
       <c r="CD4" s="16"/>
       <c r="CE4" s="9"/>
       <c r="CF4" s="10"/>
@@ -2506,92 +2510,92 @@
       <c r="CZ4" s="10"/>
       <c r="DA4" s="12"/>
     </row>
-    <row r="5" spans="1:105" ht="19.5" customHeight="1">
+    <row r="5" spans="1:105" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="68" t="s">
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
-      <c r="AL5" s="69"/>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="69"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="69"/>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="69"/>
-      <c r="AS5" s="69"/>
-      <c r="AT5" s="69"/>
-      <c r="AU5" s="69"/>
-      <c r="AV5" s="69"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="69"/>
-      <c r="BA5" s="69"/>
-      <c r="BB5" s="69"/>
-      <c r="BC5" s="69"/>
-      <c r="BD5" s="69"/>
-      <c r="BE5" s="69"/>
-      <c r="BF5" s="69"/>
-      <c r="BG5" s="69"/>
-      <c r="BH5" s="69"/>
-      <c r="BI5" s="69"/>
-      <c r="BJ5" s="69"/>
-      <c r="BK5" s="69"/>
-      <c r="BL5" s="69"/>
-      <c r="BM5" s="69"/>
-      <c r="BN5" s="69"/>
-      <c r="BO5" s="69"/>
-      <c r="BP5" s="69"/>
-      <c r="BQ5" s="69"/>
-      <c r="BR5" s="69"/>
-      <c r="BS5" s="69"/>
-      <c r="BT5" s="69"/>
-      <c r="BU5" s="69"/>
-      <c r="BV5" s="69"/>
-      <c r="BW5" s="69"/>
-      <c r="BX5" s="69"/>
-      <c r="BY5" s="69"/>
-      <c r="BZ5" s="69"/>
-      <c r="CA5" s="69"/>
-      <c r="CB5" s="69"/>
-      <c r="CC5" s="69"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="54"/>
+      <c r="AN5" s="54"/>
+      <c r="AO5" s="54"/>
+      <c r="AP5" s="54"/>
+      <c r="AQ5" s="54"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="54"/>
+      <c r="AT5" s="54"/>
+      <c r="AU5" s="54"/>
+      <c r="AV5" s="54"/>
+      <c r="AW5" s="54"/>
+      <c r="AX5" s="54"/>
+      <c r="AY5" s="54"/>
+      <c r="AZ5" s="54"/>
+      <c r="BA5" s="54"/>
+      <c r="BB5" s="54"/>
+      <c r="BC5" s="54"/>
+      <c r="BD5" s="54"/>
+      <c r="BE5" s="54"/>
+      <c r="BF5" s="54"/>
+      <c r="BG5" s="54"/>
+      <c r="BH5" s="54"/>
+      <c r="BI5" s="54"/>
+      <c r="BJ5" s="54"/>
+      <c r="BK5" s="54"/>
+      <c r="BL5" s="54"/>
+      <c r="BM5" s="54"/>
+      <c r="BN5" s="54"/>
+      <c r="BO5" s="54"/>
+      <c r="BP5" s="54"/>
+      <c r="BQ5" s="54"/>
+      <c r="BR5" s="54"/>
+      <c r="BS5" s="54"/>
+      <c r="BT5" s="54"/>
+      <c r="BU5" s="54"/>
+      <c r="BV5" s="54"/>
+      <c r="BW5" s="54"/>
+      <c r="BX5" s="54"/>
+      <c r="BY5" s="54"/>
+      <c r="BZ5" s="54"/>
+      <c r="CA5" s="54"/>
+      <c r="CB5" s="54"/>
+      <c r="CC5" s="54"/>
       <c r="CD5" s="12"/>
       <c r="CE5" s="9"/>
       <c r="CF5" s="10"/>
@@ -2617,90 +2621,90 @@
       <c r="CZ5" s="10"/>
       <c r="DA5" s="12"/>
     </row>
-    <row r="6" spans="1:105" ht="13.15" customHeight="1">
+    <row r="6" spans="1:105" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="62"/>
-      <c r="AL6" s="62"/>
-      <c r="AM6" s="62"/>
-      <c r="AN6" s="62"/>
-      <c r="AO6" s="62"/>
-      <c r="AP6" s="62"/>
-      <c r="AQ6" s="62"/>
-      <c r="AR6" s="62"/>
-      <c r="AS6" s="62"/>
-      <c r="AT6" s="62"/>
-      <c r="AU6" s="62"/>
-      <c r="AV6" s="62"/>
-      <c r="AW6" s="62"/>
-      <c r="AX6" s="62"/>
-      <c r="AY6" s="62"/>
-      <c r="AZ6" s="62"/>
-      <c r="BA6" s="62"/>
-      <c r="BB6" s="62"/>
-      <c r="BC6" s="62"/>
-      <c r="BD6" s="62"/>
-      <c r="BE6" s="62"/>
-      <c r="BF6" s="62"/>
-      <c r="BG6" s="62"/>
-      <c r="BH6" s="62"/>
-      <c r="BI6" s="62"/>
-      <c r="BJ6" s="62"/>
-      <c r="BK6" s="62"/>
-      <c r="BL6" s="62"/>
-      <c r="BM6" s="62"/>
-      <c r="BN6" s="62"/>
-      <c r="BO6" s="62"/>
-      <c r="BP6" s="62"/>
-      <c r="BQ6" s="62"/>
-      <c r="BR6" s="62"/>
-      <c r="BS6" s="62"/>
-      <c r="BT6" s="62"/>
-      <c r="BU6" s="62"/>
-      <c r="BV6" s="62"/>
-      <c r="BW6" s="62"/>
-      <c r="BX6" s="62"/>
-      <c r="BY6" s="62"/>
-      <c r="BZ6" s="62"/>
-      <c r="CA6" s="62"/>
-      <c r="CB6" s="62"/>
-      <c r="CC6" s="62"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="55"/>
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="55"/>
+      <c r="AT6" s="55"/>
+      <c r="AU6" s="55"/>
+      <c r="AV6" s="55"/>
+      <c r="AW6" s="55"/>
+      <c r="AX6" s="55"/>
+      <c r="AY6" s="55"/>
+      <c r="AZ6" s="55"/>
+      <c r="BA6" s="55"/>
+      <c r="BB6" s="55"/>
+      <c r="BC6" s="55"/>
+      <c r="BD6" s="55"/>
+      <c r="BE6" s="55"/>
+      <c r="BF6" s="55"/>
+      <c r="BG6" s="55"/>
+      <c r="BH6" s="55"/>
+      <c r="BI6" s="55"/>
+      <c r="BJ6" s="55"/>
+      <c r="BK6" s="55"/>
+      <c r="BL6" s="55"/>
+      <c r="BM6" s="55"/>
+      <c r="BN6" s="55"/>
+      <c r="BO6" s="55"/>
+      <c r="BP6" s="55"/>
+      <c r="BQ6" s="55"/>
+      <c r="BR6" s="55"/>
+      <c r="BS6" s="55"/>
+      <c r="BT6" s="55"/>
+      <c r="BU6" s="55"/>
+      <c r="BV6" s="55"/>
+      <c r="BW6" s="55"/>
+      <c r="BX6" s="55"/>
+      <c r="BY6" s="55"/>
+      <c r="BZ6" s="55"/>
+      <c r="CA6" s="55"/>
+      <c r="CB6" s="55"/>
+      <c r="CC6" s="55"/>
       <c r="CD6" s="12"/>
       <c r="CE6" s="9"/>
       <c r="CF6" s="10"/>
@@ -2726,88 +2730,88 @@
       <c r="CZ6" s="10"/>
       <c r="DA6" s="12"/>
     </row>
-    <row r="7" spans="1:105" ht="13.5" customHeight="1">
+    <row r="7" spans="1:105" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
       <c r="U7" s="17"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="77"/>
-      <c r="AG7" s="77"/>
-      <c r="AH7" s="77"/>
-      <c r="AI7" s="77"/>
-      <c r="AJ7" s="77"/>
-      <c r="AK7" s="77"/>
-      <c r="AL7" s="77"/>
-      <c r="AM7" s="77"/>
-      <c r="AN7" s="77"/>
-      <c r="AO7" s="77"/>
-      <c r="AP7" s="77"/>
-      <c r="AQ7" s="77"/>
-      <c r="AR7" s="77"/>
-      <c r="AS7" s="77"/>
-      <c r="AT7" s="77"/>
-      <c r="AU7" s="77"/>
-      <c r="AV7" s="77"/>
-      <c r="AW7" s="77"/>
-      <c r="AX7" s="77"/>
-      <c r="AY7" s="77"/>
-      <c r="AZ7" s="77"/>
-      <c r="BA7" s="77"/>
-      <c r="BB7" s="77"/>
-      <c r="BC7" s="77"/>
-      <c r="BD7" s="77"/>
-      <c r="BE7" s="77"/>
-      <c r="BF7" s="77"/>
-      <c r="BG7" s="77"/>
-      <c r="BH7" s="77"/>
-      <c r="BI7" s="77"/>
-      <c r="BJ7" s="77"/>
-      <c r="BK7" s="77"/>
-      <c r="BL7" s="77"/>
-      <c r="BM7" s="77"/>
-      <c r="BN7" s="77"/>
-      <c r="BO7" s="77"/>
-      <c r="BP7" s="77"/>
-      <c r="BQ7" s="77"/>
-      <c r="BR7" s="77"/>
-      <c r="BS7" s="77"/>
-      <c r="BT7" s="77"/>
-      <c r="BU7" s="77"/>
-      <c r="BV7" s="77"/>
-      <c r="BW7" s="77"/>
-      <c r="BX7" s="77"/>
-      <c r="BY7" s="77"/>
-      <c r="BZ7" s="77"/>
-      <c r="CA7" s="77"/>
-      <c r="CB7" s="77"/>
-      <c r="CC7" s="78"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="109"/>
+      <c r="AA7" s="109"/>
+      <c r="AB7" s="109"/>
+      <c r="AC7" s="109"/>
+      <c r="AD7" s="109"/>
+      <c r="AE7" s="109"/>
+      <c r="AF7" s="109"/>
+      <c r="AG7" s="109"/>
+      <c r="AH7" s="109"/>
+      <c r="AI7" s="109"/>
+      <c r="AJ7" s="109"/>
+      <c r="AK7" s="109"/>
+      <c r="AL7" s="109"/>
+      <c r="AM7" s="109"/>
+      <c r="AN7" s="109"/>
+      <c r="AO7" s="109"/>
+      <c r="AP7" s="109"/>
+      <c r="AQ7" s="109"/>
+      <c r="AR7" s="109"/>
+      <c r="AS7" s="109"/>
+      <c r="AT7" s="109"/>
+      <c r="AU7" s="109"/>
+      <c r="AV7" s="109"/>
+      <c r="AW7" s="109"/>
+      <c r="AX7" s="109"/>
+      <c r="AY7" s="109"/>
+      <c r="AZ7" s="109"/>
+      <c r="BA7" s="109"/>
+      <c r="BB7" s="109"/>
+      <c r="BC7" s="109"/>
+      <c r="BD7" s="109"/>
+      <c r="BE7" s="109"/>
+      <c r="BF7" s="109"/>
+      <c r="BG7" s="109"/>
+      <c r="BH7" s="109"/>
+      <c r="BI7" s="109"/>
+      <c r="BJ7" s="109"/>
+      <c r="BK7" s="109"/>
+      <c r="BL7" s="109"/>
+      <c r="BM7" s="109"/>
+      <c r="BN7" s="109"/>
+      <c r="BO7" s="109"/>
+      <c r="BP7" s="109"/>
+      <c r="BQ7" s="109"/>
+      <c r="BR7" s="109"/>
+      <c r="BS7" s="109"/>
+      <c r="BT7" s="109"/>
+      <c r="BU7" s="109"/>
+      <c r="BV7" s="109"/>
+      <c r="BW7" s="109"/>
+      <c r="BX7" s="109"/>
+      <c r="BY7" s="109"/>
+      <c r="BZ7" s="109"/>
+      <c r="CA7" s="109"/>
+      <c r="CB7" s="109"/>
+      <c r="CC7" s="110"/>
       <c r="CD7" s="16"/>
       <c r="CE7" s="9"/>
       <c r="CF7" s="10"/>
@@ -2833,92 +2837,92 @@
       <c r="CZ7" s="10"/>
       <c r="DA7" s="12"/>
     </row>
-    <row r="8" spans="1:105" ht="16.5" customHeight="1">
+    <row r="8" spans="1:105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="68" t="s">
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69"/>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="69"/>
-      <c r="AI8" s="69"/>
-      <c r="AJ8" s="69"/>
-      <c r="AK8" s="69"/>
-      <c r="AL8" s="69"/>
-      <c r="AM8" s="69"/>
-      <c r="AN8" s="69"/>
-      <c r="AO8" s="69"/>
-      <c r="AP8" s="69"/>
-      <c r="AQ8" s="69"/>
-      <c r="AR8" s="69"/>
-      <c r="AS8" s="69"/>
-      <c r="AT8" s="69"/>
-      <c r="AU8" s="69"/>
-      <c r="AV8" s="69"/>
-      <c r="AW8" s="69"/>
-      <c r="AX8" s="69"/>
-      <c r="AY8" s="69"/>
-      <c r="AZ8" s="69"/>
-      <c r="BA8" s="69"/>
-      <c r="BB8" s="69"/>
-      <c r="BC8" s="69"/>
-      <c r="BD8" s="69"/>
-      <c r="BE8" s="69"/>
-      <c r="BF8" s="69"/>
-      <c r="BG8" s="69"/>
-      <c r="BH8" s="69"/>
-      <c r="BI8" s="69"/>
-      <c r="BJ8" s="69"/>
-      <c r="BK8" s="69"/>
-      <c r="BL8" s="69"/>
-      <c r="BM8" s="69"/>
-      <c r="BN8" s="69"/>
-      <c r="BO8" s="69"/>
-      <c r="BP8" s="69"/>
-      <c r="BQ8" s="69"/>
-      <c r="BR8" s="69"/>
-      <c r="BS8" s="69"/>
-      <c r="BT8" s="69"/>
-      <c r="BU8" s="69"/>
-      <c r="BV8" s="69"/>
-      <c r="BW8" s="69"/>
-      <c r="BX8" s="69"/>
-      <c r="BY8" s="69"/>
-      <c r="BZ8" s="69"/>
-      <c r="CA8" s="69"/>
-      <c r="CB8" s="69"/>
-      <c r="CC8" s="69"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="54"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="54"/>
+      <c r="AP8" s="54"/>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54"/>
+      <c r="AT8" s="54"/>
+      <c r="AU8" s="54"/>
+      <c r="AV8" s="54"/>
+      <c r="AW8" s="54"/>
+      <c r="AX8" s="54"/>
+      <c r="AY8" s="54"/>
+      <c r="AZ8" s="54"/>
+      <c r="BA8" s="54"/>
+      <c r="BB8" s="54"/>
+      <c r="BC8" s="54"/>
+      <c r="BD8" s="54"/>
+      <c r="BE8" s="54"/>
+      <c r="BF8" s="54"/>
+      <c r="BG8" s="54"/>
+      <c r="BH8" s="54"/>
+      <c r="BI8" s="54"/>
+      <c r="BJ8" s="54"/>
+      <c r="BK8" s="54"/>
+      <c r="BL8" s="54"/>
+      <c r="BM8" s="54"/>
+      <c r="BN8" s="54"/>
+      <c r="BO8" s="54"/>
+      <c r="BP8" s="54"/>
+      <c r="BQ8" s="54"/>
+      <c r="BR8" s="54"/>
+      <c r="BS8" s="54"/>
+      <c r="BT8" s="54"/>
+      <c r="BU8" s="54"/>
+      <c r="BV8" s="54"/>
+      <c r="BW8" s="54"/>
+      <c r="BX8" s="54"/>
+      <c r="BY8" s="54"/>
+      <c r="BZ8" s="54"/>
+      <c r="CA8" s="54"/>
+      <c r="CB8" s="54"/>
+      <c r="CC8" s="54"/>
       <c r="CD8" s="12"/>
       <c r="CE8" s="9"/>
       <c r="CF8" s="10"/>
@@ -2944,7 +2948,7 @@
       <c r="CZ8" s="10"/>
       <c r="DA8" s="12"/>
     </row>
-    <row r="9" spans="1:105" ht="15.75" customHeight="1">
+    <row r="9" spans="1:105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -3053,7 +3057,7 @@
       <c r="CZ9" s="19"/>
       <c r="DA9" s="12"/>
     </row>
-    <row r="10" spans="1:105" ht="15" customHeight="1">
+    <row r="10" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -3139,32 +3143,32 @@
       <c r="CC10" s="10"/>
       <c r="CD10" s="12"/>
       <c r="CE10" s="16"/>
-      <c r="CF10" s="50" t="s">
+      <c r="CF10" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="CG10" s="51"/>
-      <c r="CH10" s="51"/>
-      <c r="CI10" s="51"/>
-      <c r="CJ10" s="51"/>
-      <c r="CK10" s="51"/>
-      <c r="CL10" s="51"/>
-      <c r="CM10" s="51"/>
-      <c r="CN10" s="51"/>
-      <c r="CO10" s="51"/>
-      <c r="CP10" s="51"/>
-      <c r="CQ10" s="51"/>
-      <c r="CR10" s="51"/>
-      <c r="CS10" s="51"/>
-      <c r="CT10" s="51"/>
-      <c r="CU10" s="51"/>
-      <c r="CV10" s="51"/>
-      <c r="CW10" s="51"/>
-      <c r="CX10" s="51"/>
-      <c r="CY10" s="51"/>
-      <c r="CZ10" s="52"/>
+      <c r="CG10" s="113"/>
+      <c r="CH10" s="113"/>
+      <c r="CI10" s="113"/>
+      <c r="CJ10" s="113"/>
+      <c r="CK10" s="113"/>
+      <c r="CL10" s="113"/>
+      <c r="CM10" s="113"/>
+      <c r="CN10" s="113"/>
+      <c r="CO10" s="113"/>
+      <c r="CP10" s="113"/>
+      <c r="CQ10" s="113"/>
+      <c r="CR10" s="113"/>
+      <c r="CS10" s="113"/>
+      <c r="CT10" s="113"/>
+      <c r="CU10" s="113"/>
+      <c r="CV10" s="113"/>
+      <c r="CW10" s="113"/>
+      <c r="CX10" s="113"/>
+      <c r="CY10" s="113"/>
+      <c r="CZ10" s="114"/>
       <c r="DA10" s="20"/>
     </row>
-    <row r="11" spans="1:105" ht="14.25" customHeight="1">
+    <row r="11" spans="1:105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -3250,30 +3254,30 @@
       <c r="CC11" s="10"/>
       <c r="CD11" s="12"/>
       <c r="CE11" s="16"/>
-      <c r="CF11" s="53"/>
-      <c r="CG11" s="54"/>
-      <c r="CH11" s="54"/>
-      <c r="CI11" s="54"/>
-      <c r="CJ11" s="54"/>
-      <c r="CK11" s="54"/>
-      <c r="CL11" s="54"/>
-      <c r="CM11" s="54"/>
-      <c r="CN11" s="54"/>
-      <c r="CO11" s="54"/>
-      <c r="CP11" s="54"/>
-      <c r="CQ11" s="54"/>
-      <c r="CR11" s="54"/>
-      <c r="CS11" s="54"/>
-      <c r="CT11" s="54"/>
-      <c r="CU11" s="54"/>
-      <c r="CV11" s="54"/>
-      <c r="CW11" s="54"/>
-      <c r="CX11" s="54"/>
-      <c r="CY11" s="54"/>
-      <c r="CZ11" s="55"/>
+      <c r="CF11" s="115"/>
+      <c r="CG11" s="116"/>
+      <c r="CH11" s="116"/>
+      <c r="CI11" s="116"/>
+      <c r="CJ11" s="116"/>
+      <c r="CK11" s="116"/>
+      <c r="CL11" s="116"/>
+      <c r="CM11" s="116"/>
+      <c r="CN11" s="116"/>
+      <c r="CO11" s="116"/>
+      <c r="CP11" s="116"/>
+      <c r="CQ11" s="116"/>
+      <c r="CR11" s="116"/>
+      <c r="CS11" s="116"/>
+      <c r="CT11" s="116"/>
+      <c r="CU11" s="116"/>
+      <c r="CV11" s="116"/>
+      <c r="CW11" s="116"/>
+      <c r="CX11" s="116"/>
+      <c r="CY11" s="116"/>
+      <c r="CZ11" s="117"/>
       <c r="DA11" s="20"/>
     </row>
-    <row r="12" spans="1:105" ht="8.1" customHeight="1">
+    <row r="12" spans="1:105" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
@@ -3357,30 +3361,30 @@
       <c r="CC12" s="10"/>
       <c r="CD12" s="12"/>
       <c r="CE12" s="16"/>
-      <c r="CF12" s="53"/>
-      <c r="CG12" s="54"/>
-      <c r="CH12" s="54"/>
-      <c r="CI12" s="54"/>
-      <c r="CJ12" s="54"/>
-      <c r="CK12" s="54"/>
-      <c r="CL12" s="54"/>
-      <c r="CM12" s="54"/>
-      <c r="CN12" s="54"/>
-      <c r="CO12" s="54"/>
-      <c r="CP12" s="54"/>
-      <c r="CQ12" s="54"/>
-      <c r="CR12" s="54"/>
-      <c r="CS12" s="54"/>
-      <c r="CT12" s="54"/>
-      <c r="CU12" s="54"/>
-      <c r="CV12" s="54"/>
-      <c r="CW12" s="54"/>
-      <c r="CX12" s="54"/>
-      <c r="CY12" s="54"/>
-      <c r="CZ12" s="55"/>
+      <c r="CF12" s="115"/>
+      <c r="CG12" s="116"/>
+      <c r="CH12" s="116"/>
+      <c r="CI12" s="116"/>
+      <c r="CJ12" s="116"/>
+      <c r="CK12" s="116"/>
+      <c r="CL12" s="116"/>
+      <c r="CM12" s="116"/>
+      <c r="CN12" s="116"/>
+      <c r="CO12" s="116"/>
+      <c r="CP12" s="116"/>
+      <c r="CQ12" s="116"/>
+      <c r="CR12" s="116"/>
+      <c r="CS12" s="116"/>
+      <c r="CT12" s="116"/>
+      <c r="CU12" s="116"/>
+      <c r="CV12" s="116"/>
+      <c r="CW12" s="116"/>
+      <c r="CX12" s="116"/>
+      <c r="CY12" s="116"/>
+      <c r="CZ12" s="117"/>
       <c r="DA12" s="20"/>
     </row>
-    <row r="13" spans="1:105" ht="12" customHeight="1">
+    <row r="13" spans="1:105" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -3401,55 +3405,55 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="59"/>
-      <c r="AL13" s="59"/>
-      <c r="AM13" s="59"/>
-      <c r="AN13" s="59"/>
-      <c r="AO13" s="59"/>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="59"/>
-      <c r="AR13" s="59"/>
-      <c r="AS13" s="59"/>
-      <c r="AT13" s="59"/>
-      <c r="AU13" s="59"/>
-      <c r="AV13" s="59"/>
-      <c r="AW13" s="59"/>
-      <c r="AX13" s="59"/>
-      <c r="AY13" s="60"/>
-      <c r="AZ13" s="60"/>
-      <c r="BA13" s="60"/>
-      <c r="BB13" s="60"/>
-      <c r="BC13" s="60"/>
-      <c r="BD13" s="60"/>
-      <c r="BE13" s="60"/>
-      <c r="BF13" s="60"/>
-      <c r="BG13" s="60"/>
-      <c r="BH13" s="60"/>
-      <c r="BI13" s="60"/>
-      <c r="BJ13" s="60"/>
-      <c r="BK13" s="60"/>
-      <c r="BL13" s="60"/>
-      <c r="BM13" s="60"/>
-      <c r="BN13" s="60"/>
-      <c r="BO13" s="60"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="64"/>
+      <c r="AF13" s="64"/>
+      <c r="AG13" s="64"/>
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="64"/>
+      <c r="AJ13" s="64"/>
+      <c r="AK13" s="64"/>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="64"/>
+      <c r="AN13" s="64"/>
+      <c r="AO13" s="64"/>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="64"/>
+      <c r="AR13" s="64"/>
+      <c r="AS13" s="64"/>
+      <c r="AT13" s="64"/>
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="64"/>
+      <c r="AW13" s="64"/>
+      <c r="AX13" s="64"/>
+      <c r="AY13" s="111"/>
+      <c r="AZ13" s="111"/>
+      <c r="BA13" s="111"/>
+      <c r="BB13" s="111"/>
+      <c r="BC13" s="111"/>
+      <c r="BD13" s="111"/>
+      <c r="BE13" s="111"/>
+      <c r="BF13" s="111"/>
+      <c r="BG13" s="111"/>
+      <c r="BH13" s="111"/>
+      <c r="BI13" s="111"/>
+      <c r="BJ13" s="111"/>
+      <c r="BK13" s="111"/>
+      <c r="BL13" s="111"/>
+      <c r="BM13" s="111"/>
+      <c r="BN13" s="111"/>
+      <c r="BO13" s="111"/>
       <c r="BP13" s="10"/>
       <c r="BQ13" s="10"/>
       <c r="BR13" s="10"/>
@@ -3466,30 +3470,30 @@
       <c r="CC13" s="10"/>
       <c r="CD13" s="12"/>
       <c r="CE13" s="16"/>
-      <c r="CF13" s="56"/>
-      <c r="CG13" s="57"/>
-      <c r="CH13" s="57"/>
-      <c r="CI13" s="57"/>
-      <c r="CJ13" s="57"/>
-      <c r="CK13" s="57"/>
-      <c r="CL13" s="57"/>
-      <c r="CM13" s="57"/>
-      <c r="CN13" s="57"/>
-      <c r="CO13" s="57"/>
-      <c r="CP13" s="57"/>
-      <c r="CQ13" s="57"/>
-      <c r="CR13" s="57"/>
-      <c r="CS13" s="57"/>
-      <c r="CT13" s="57"/>
-      <c r="CU13" s="57"/>
-      <c r="CV13" s="57"/>
-      <c r="CW13" s="57"/>
-      <c r="CX13" s="57"/>
-      <c r="CY13" s="57"/>
-      <c r="CZ13" s="58"/>
+      <c r="CF13" s="118"/>
+      <c r="CG13" s="119"/>
+      <c r="CH13" s="119"/>
+      <c r="CI13" s="119"/>
+      <c r="CJ13" s="119"/>
+      <c r="CK13" s="119"/>
+      <c r="CL13" s="119"/>
+      <c r="CM13" s="119"/>
+      <c r="CN13" s="119"/>
+      <c r="CO13" s="119"/>
+      <c r="CP13" s="119"/>
+      <c r="CQ13" s="119"/>
+      <c r="CR13" s="119"/>
+      <c r="CS13" s="119"/>
+      <c r="CT13" s="119"/>
+      <c r="CU13" s="119"/>
+      <c r="CV13" s="119"/>
+      <c r="CW13" s="119"/>
+      <c r="CX13" s="119"/>
+      <c r="CY13" s="119"/>
+      <c r="CZ13" s="120"/>
       <c r="DA13" s="20"/>
     </row>
-    <row r="14" spans="1:105" ht="27.75" customHeight="1">
+    <row r="14" spans="1:105" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -3503,88 +3507,88 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="70" t="s">
+      <c r="L14" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="71"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="81"/>
       <c r="AC14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AD14" s="72" t="s">
+      <c r="AD14" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="AE14" s="73"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="59"/>
-      <c r="AJ14" s="59"/>
-      <c r="AK14" s="59"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="64"/>
       <c r="AL14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AM14" s="72" t="s">
+      <c r="AM14" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="AN14" s="73"/>
-      <c r="AO14" s="73"/>
-      <c r="AP14" s="73"/>
-      <c r="AQ14" s="73"/>
-      <c r="AR14" s="59"/>
-      <c r="AS14" s="59"/>
-      <c r="AT14" s="59"/>
+      <c r="AN14" s="66"/>
+      <c r="AO14" s="66"/>
+      <c r="AP14" s="66"/>
+      <c r="AQ14" s="66"/>
+      <c r="AR14" s="64"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="64"/>
       <c r="AU14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AV14" s="79" t="s">
+      <c r="AV14" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="AW14" s="80"/>
-      <c r="AX14" s="80"/>
-      <c r="AY14" s="59"/>
-      <c r="AZ14" s="59"/>
-      <c r="BA14" s="59"/>
+      <c r="AW14" s="62"/>
+      <c r="AX14" s="62"/>
+      <c r="AY14" s="64"/>
+      <c r="AZ14" s="64"/>
+      <c r="BA14" s="64"/>
       <c r="BB14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="BC14" s="81"/>
-      <c r="BD14" s="81"/>
-      <c r="BE14" s="81"/>
-      <c r="BF14" s="81"/>
-      <c r="BG14" s="81"/>
+      <c r="BC14" s="60"/>
+      <c r="BD14" s="60"/>
+      <c r="BE14" s="60"/>
+      <c r="BF14" s="60"/>
+      <c r="BG14" s="60"/>
       <c r="BH14" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="BI14" s="72" t="s">
+      <c r="BI14" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="BJ14" s="73"/>
-      <c r="BK14" s="60"/>
-      <c r="BL14" s="60"/>
-      <c r="BM14" s="60"/>
-      <c r="BN14" s="60"/>
-      <c r="BO14" s="60"/>
-      <c r="BP14" s="60"/>
-      <c r="BQ14" s="60"/>
-      <c r="BR14" s="60"/>
-      <c r="BS14" s="60"/>
-      <c r="BT14" s="60"/>
-      <c r="BU14" s="60"/>
+      <c r="BJ14" s="66"/>
+      <c r="BK14" s="111"/>
+      <c r="BL14" s="111"/>
+      <c r="BM14" s="111"/>
+      <c r="BN14" s="111"/>
+      <c r="BO14" s="111"/>
+      <c r="BP14" s="111"/>
+      <c r="BQ14" s="111"/>
+      <c r="BR14" s="111"/>
+      <c r="BS14" s="111"/>
+      <c r="BT14" s="111"/>
+      <c r="BU14" s="111"/>
       <c r="BV14" s="10"/>
       <c r="BW14" s="10"/>
       <c r="BX14" s="10"/>
@@ -3618,7 +3622,7 @@
       <c r="CZ14" s="7"/>
       <c r="DA14" s="12"/>
     </row>
-    <row r="15" spans="1:105" ht="13.5" customHeight="1">
+    <row r="15" spans="1:105" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -3662,41 +3666,41 @@
       <c r="AO15" s="22"/>
       <c r="AP15" s="22"/>
       <c r="AQ15" s="22"/>
-      <c r="AR15" s="59"/>
-      <c r="AS15" s="59"/>
-      <c r="AT15" s="59"/>
-      <c r="AU15" s="59"/>
-      <c r="AV15" s="59"/>
-      <c r="AW15" s="59"/>
-      <c r="AX15" s="59"/>
-      <c r="AY15" s="59"/>
-      <c r="AZ15" s="59"/>
-      <c r="BA15" s="59"/>
-      <c r="BB15" s="59"/>
-      <c r="BC15" s="59"/>
-      <c r="BD15" s="59"/>
-      <c r="BE15" s="59"/>
-      <c r="BF15" s="72" t="s">
+      <c r="AR15" s="64"/>
+      <c r="AS15" s="64"/>
+      <c r="AT15" s="64"/>
+      <c r="AU15" s="64"/>
+      <c r="AV15" s="64"/>
+      <c r="AW15" s="64"/>
+      <c r="AX15" s="64"/>
+      <c r="AY15" s="64"/>
+      <c r="AZ15" s="64"/>
+      <c r="BA15" s="64"/>
+      <c r="BB15" s="64"/>
+      <c r="BC15" s="64"/>
+      <c r="BD15" s="64"/>
+      <c r="BE15" s="64"/>
+      <c r="BF15" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="BG15" s="73"/>
+      <c r="BG15" s="66"/>
       <c r="BH15" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="BI15" s="81"/>
-      <c r="BJ15" s="81"/>
-      <c r="BK15" s="81"/>
-      <c r="BL15" s="81"/>
-      <c r="BM15" s="81"/>
-      <c r="BN15" s="81"/>
-      <c r="BO15" s="81"/>
-      <c r="BP15" s="81"/>
-      <c r="BQ15" s="81"/>
-      <c r="BR15" s="72" t="s">
+      <c r="BI15" s="60"/>
+      <c r="BJ15" s="60"/>
+      <c r="BK15" s="60"/>
+      <c r="BL15" s="60"/>
+      <c r="BM15" s="60"/>
+      <c r="BN15" s="60"/>
+      <c r="BO15" s="60"/>
+      <c r="BP15" s="60"/>
+      <c r="BQ15" s="60"/>
+      <c r="BR15" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="BS15" s="73"/>
-      <c r="BT15" s="73"/>
+      <c r="BS15" s="66"/>
+      <c r="BT15" s="66"/>
       <c r="BU15" s="10"/>
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
@@ -3731,7 +3735,7 @@
       <c r="CZ15" s="10"/>
       <c r="DA15" s="12"/>
     </row>
-    <row r="16" spans="1:105" ht="8.1" customHeight="1">
+    <row r="16" spans="1:105" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -3838,7 +3842,7 @@
       <c r="CZ16" s="10"/>
       <c r="DA16" s="12"/>
     </row>
-    <row r="17" spans="1:105" ht="13.5" customHeight="1">
+    <row r="17" spans="1:105" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
@@ -3951,90 +3955,90 @@
       <c r="CZ17" s="10"/>
       <c r="DA17" s="12"/>
     </row>
-    <row r="18" spans="1:105" ht="13.15" customHeight="1">
+    <row r="18" spans="1:105" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="82">
+      <c r="E18" s="93">
         <v>0</v>
       </c>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="83"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="83"/>
-      <c r="AD18" s="83"/>
-      <c r="AE18" s="83"/>
-      <c r="AF18" s="83"/>
-      <c r="AG18" s="83"/>
-      <c r="AH18" s="83"/>
-      <c r="AI18" s="83"/>
-      <c r="AJ18" s="83"/>
-      <c r="AK18" s="83"/>
-      <c r="AL18" s="83"/>
-      <c r="AM18" s="83"/>
-      <c r="AN18" s="83"/>
-      <c r="AO18" s="83"/>
-      <c r="AP18" s="83"/>
-      <c r="AQ18" s="84"/>
-      <c r="AR18" s="88"/>
-      <c r="AS18" s="89"/>
-      <c r="AT18" s="89"/>
-      <c r="AU18" s="89"/>
-      <c r="AV18" s="89"/>
-      <c r="AW18" s="89"/>
-      <c r="AX18" s="89"/>
-      <c r="AY18" s="89"/>
-      <c r="AZ18" s="89"/>
-      <c r="BA18" s="89"/>
-      <c r="BB18" s="89"/>
-      <c r="BC18" s="89"/>
-      <c r="BD18" s="89"/>
-      <c r="BE18" s="89"/>
-      <c r="BF18" s="89"/>
-      <c r="BG18" s="89"/>
-      <c r="BH18" s="89"/>
-      <c r="BI18" s="89"/>
-      <c r="BJ18" s="89"/>
-      <c r="BK18" s="89"/>
-      <c r="BL18" s="89"/>
-      <c r="BM18" s="89"/>
-      <c r="BN18" s="89"/>
-      <c r="BO18" s="89"/>
-      <c r="BP18" s="89"/>
-      <c r="BQ18" s="89"/>
-      <c r="BR18" s="89"/>
-      <c r="BS18" s="89"/>
-      <c r="BT18" s="89"/>
-      <c r="BU18" s="89"/>
-      <c r="BV18" s="89"/>
-      <c r="BW18" s="89"/>
-      <c r="BX18" s="89"/>
-      <c r="BY18" s="89"/>
-      <c r="BZ18" s="89"/>
-      <c r="CA18" s="89"/>
-      <c r="CB18" s="89"/>
-      <c r="CC18" s="90"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="94"/>
+      <c r="AA18" s="94"/>
+      <c r="AB18" s="94"/>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="94"/>
+      <c r="AE18" s="94"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="94"/>
+      <c r="AH18" s="94"/>
+      <c r="AI18" s="94"/>
+      <c r="AJ18" s="94"/>
+      <c r="AK18" s="94"/>
+      <c r="AL18" s="94"/>
+      <c r="AM18" s="94"/>
+      <c r="AN18" s="94"/>
+      <c r="AO18" s="94"/>
+      <c r="AP18" s="94"/>
+      <c r="AQ18" s="95"/>
+      <c r="AR18" s="99"/>
+      <c r="AS18" s="100"/>
+      <c r="AT18" s="100"/>
+      <c r="AU18" s="100"/>
+      <c r="AV18" s="100"/>
+      <c r="AW18" s="100"/>
+      <c r="AX18" s="100"/>
+      <c r="AY18" s="100"/>
+      <c r="AZ18" s="100"/>
+      <c r="BA18" s="100"/>
+      <c r="BB18" s="100"/>
+      <c r="BC18" s="100"/>
+      <c r="BD18" s="100"/>
+      <c r="BE18" s="100"/>
+      <c r="BF18" s="100"/>
+      <c r="BG18" s="100"/>
+      <c r="BH18" s="100"/>
+      <c r="BI18" s="100"/>
+      <c r="BJ18" s="100"/>
+      <c r="BK18" s="100"/>
+      <c r="BL18" s="100"/>
+      <c r="BM18" s="100"/>
+      <c r="BN18" s="100"/>
+      <c r="BO18" s="100"/>
+      <c r="BP18" s="100"/>
+      <c r="BQ18" s="100"/>
+      <c r="BR18" s="100"/>
+      <c r="BS18" s="100"/>
+      <c r="BT18" s="100"/>
+      <c r="BU18" s="100"/>
+      <c r="BV18" s="100"/>
+      <c r="BW18" s="100"/>
+      <c r="BX18" s="100"/>
+      <c r="BY18" s="100"/>
+      <c r="BZ18" s="100"/>
+      <c r="CA18" s="100"/>
+      <c r="CB18" s="100"/>
+      <c r="CC18" s="101"/>
       <c r="CD18" s="16"/>
       <c r="CE18" s="9"/>
       <c r="CF18" s="10"/>
@@ -4060,88 +4064,88 @@
       <c r="CZ18" s="10"/>
       <c r="DA18" s="12"/>
     </row>
-    <row r="19" spans="1:105" ht="13.15" customHeight="1">
+    <row r="19" spans="1:105" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="32"/>
       <c r="C19" s="19"/>
       <c r="D19" s="33"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="86"/>
-      <c r="AD19" s="86"/>
-      <c r="AE19" s="86"/>
-      <c r="AF19" s="86"/>
-      <c r="AG19" s="86"/>
-      <c r="AH19" s="86"/>
-      <c r="AI19" s="86"/>
-      <c r="AJ19" s="86"/>
-      <c r="AK19" s="86"/>
-      <c r="AL19" s="86"/>
-      <c r="AM19" s="86"/>
-      <c r="AN19" s="86"/>
-      <c r="AO19" s="86"/>
-      <c r="AP19" s="86"/>
-      <c r="AQ19" s="87"/>
-      <c r="AR19" s="91"/>
-      <c r="AS19" s="62"/>
-      <c r="AT19" s="62"/>
-      <c r="AU19" s="62"/>
-      <c r="AV19" s="62"/>
-      <c r="AW19" s="62"/>
-      <c r="AX19" s="62"/>
-      <c r="AY19" s="62"/>
-      <c r="AZ19" s="62"/>
-      <c r="BA19" s="62"/>
-      <c r="BB19" s="62"/>
-      <c r="BC19" s="62"/>
-      <c r="BD19" s="62"/>
-      <c r="BE19" s="62"/>
-      <c r="BF19" s="62"/>
-      <c r="BG19" s="62"/>
-      <c r="BH19" s="62"/>
-      <c r="BI19" s="62"/>
-      <c r="BJ19" s="62"/>
-      <c r="BK19" s="62"/>
-      <c r="BL19" s="62"/>
-      <c r="BM19" s="62"/>
-      <c r="BN19" s="62"/>
-      <c r="BO19" s="62"/>
-      <c r="BP19" s="62"/>
-      <c r="BQ19" s="62"/>
-      <c r="BR19" s="62"/>
-      <c r="BS19" s="62"/>
-      <c r="BT19" s="62"/>
-      <c r="BU19" s="62"/>
-      <c r="BV19" s="62"/>
-      <c r="BW19" s="62"/>
-      <c r="BX19" s="62"/>
-      <c r="BY19" s="62"/>
-      <c r="BZ19" s="62"/>
-      <c r="CA19" s="62"/>
-      <c r="CB19" s="62"/>
-      <c r="CC19" s="92"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="97"/>
+      <c r="S19" s="97"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="97"/>
+      <c r="V19" s="97"/>
+      <c r="W19" s="97"/>
+      <c r="X19" s="97"/>
+      <c r="Y19" s="97"/>
+      <c r="Z19" s="97"/>
+      <c r="AA19" s="97"/>
+      <c r="AB19" s="97"/>
+      <c r="AC19" s="97"/>
+      <c r="AD19" s="97"/>
+      <c r="AE19" s="97"/>
+      <c r="AF19" s="97"/>
+      <c r="AG19" s="97"/>
+      <c r="AH19" s="97"/>
+      <c r="AI19" s="97"/>
+      <c r="AJ19" s="97"/>
+      <c r="AK19" s="97"/>
+      <c r="AL19" s="97"/>
+      <c r="AM19" s="97"/>
+      <c r="AN19" s="97"/>
+      <c r="AO19" s="97"/>
+      <c r="AP19" s="97"/>
+      <c r="AQ19" s="98"/>
+      <c r="AR19" s="102"/>
+      <c r="AS19" s="55"/>
+      <c r="AT19" s="55"/>
+      <c r="AU19" s="55"/>
+      <c r="AV19" s="55"/>
+      <c r="AW19" s="55"/>
+      <c r="AX19" s="55"/>
+      <c r="AY19" s="55"/>
+      <c r="AZ19" s="55"/>
+      <c r="BA19" s="55"/>
+      <c r="BB19" s="55"/>
+      <c r="BC19" s="55"/>
+      <c r="BD19" s="55"/>
+      <c r="BE19" s="55"/>
+      <c r="BF19" s="55"/>
+      <c r="BG19" s="55"/>
+      <c r="BH19" s="55"/>
+      <c r="BI19" s="55"/>
+      <c r="BJ19" s="55"/>
+      <c r="BK19" s="55"/>
+      <c r="BL19" s="55"/>
+      <c r="BM19" s="55"/>
+      <c r="BN19" s="55"/>
+      <c r="BO19" s="55"/>
+      <c r="BP19" s="55"/>
+      <c r="BQ19" s="55"/>
+      <c r="BR19" s="55"/>
+      <c r="BS19" s="55"/>
+      <c r="BT19" s="55"/>
+      <c r="BU19" s="55"/>
+      <c r="BV19" s="55"/>
+      <c r="BW19" s="55"/>
+      <c r="BX19" s="55"/>
+      <c r="BY19" s="55"/>
+      <c r="BZ19" s="55"/>
+      <c r="CA19" s="55"/>
+      <c r="CB19" s="55"/>
+      <c r="CC19" s="83"/>
       <c r="CD19" s="34"/>
       <c r="CE19" s="32"/>
       <c r="CF19" s="19"/>
@@ -4167,7 +4171,7 @@
       <c r="CZ19" s="19"/>
       <c r="DA19" s="33"/>
     </row>
-    <row r="20" spans="1:105" ht="12.75" customHeight="1">
+    <row r="20" spans="1:105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -4274,8 +4278,8 @@
       <c r="CZ20" s="7"/>
       <c r="DA20" s="8"/>
     </row>
-    <row r="21" spans="1:105" ht="12" customHeight="1">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:105" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="103" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="9"/>
@@ -4385,8 +4389,8 @@
       <c r="CZ21" s="10"/>
       <c r="DA21" s="12"/>
     </row>
-    <row r="22" spans="1:105" ht="14.25" customHeight="1">
-      <c r="A22" s="94"/>
+    <row r="22" spans="1:105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="104"/>
       <c r="B22" s="9"/>
       <c r="C22" s="18" t="s">
         <v>25</v>
@@ -4431,22 +4435,22 @@
       <c r="AO22" s="10"/>
       <c r="AP22" s="10"/>
       <c r="AQ22" s="10"/>
-      <c r="AR22" s="96">
+      <c r="AR22" s="88">
         <v>0</v>
       </c>
-      <c r="AS22" s="97"/>
-      <c r="AT22" s="97"/>
-      <c r="AU22" s="97"/>
-      <c r="AV22" s="97"/>
-      <c r="AW22" s="97"/>
-      <c r="AX22" s="97"/>
-      <c r="AY22" s="97"/>
-      <c r="AZ22" s="97"/>
-      <c r="BA22" s="97"/>
-      <c r="BB22" s="97"/>
-      <c r="BC22" s="97"/>
-      <c r="BD22" s="97"/>
-      <c r="BE22" s="97"/>
+      <c r="AS22" s="89"/>
+      <c r="AT22" s="89"/>
+      <c r="AU22" s="89"/>
+      <c r="AV22" s="89"/>
+      <c r="AW22" s="89"/>
+      <c r="AX22" s="89"/>
+      <c r="AY22" s="89"/>
+      <c r="AZ22" s="89"/>
+      <c r="BA22" s="89"/>
+      <c r="BB22" s="89"/>
+      <c r="BC22" s="89"/>
+      <c r="BD22" s="89"/>
+      <c r="BE22" s="89"/>
       <c r="BF22" s="10"/>
       <c r="BG22" s="10"/>
       <c r="BH22" s="10"/>
@@ -4496,8 +4500,8 @@
       <c r="CZ22" s="10"/>
       <c r="DA22" s="12"/>
     </row>
-    <row r="23" spans="1:105" ht="13.5" customHeight="1">
-      <c r="A23" s="94"/>
+    <row r="23" spans="1:105" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="104"/>
       <c r="B23" s="9"/>
       <c r="C23" s="18" t="s">
         <v>26</v>
@@ -4605,8 +4609,8 @@
       <c r="CZ23" s="10"/>
       <c r="DA23" s="12"/>
     </row>
-    <row r="24" spans="1:105" ht="24" customHeight="1">
-      <c r="A24" s="95"/>
+    <row r="24" spans="1:105" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="87"/>
       <c r="B24" s="9"/>
       <c r="C24" s="18" t="s">
         <v>27</v>
@@ -4620,124 +4624,124 @@
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="59"/>
-      <c r="AN24" s="59"/>
-      <c r="AO24" s="59"/>
-      <c r="AP24" s="59"/>
-      <c r="AQ24" s="59"/>
-      <c r="AR24" s="59"/>
-      <c r="AS24" s="59"/>
-      <c r="AT24" s="59"/>
-      <c r="AU24" s="59"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="64"/>
+      <c r="AC24" s="64"/>
+      <c r="AD24" s="64"/>
+      <c r="AE24" s="64"/>
+      <c r="AF24" s="64"/>
+      <c r="AG24" s="64"/>
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="64"/>
+      <c r="AJ24" s="64"/>
+      <c r="AK24" s="64"/>
+      <c r="AL24" s="64"/>
+      <c r="AM24" s="64"/>
+      <c r="AN24" s="64"/>
+      <c r="AO24" s="64"/>
+      <c r="AP24" s="64"/>
+      <c r="AQ24" s="64"/>
+      <c r="AR24" s="64"/>
+      <c r="AS24" s="64"/>
+      <c r="AT24" s="64"/>
+      <c r="AU24" s="64"/>
       <c r="AV24" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AW24" s="70" t="s">
+      <c r="AW24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="AX24" s="59"/>
-      <c r="AY24" s="59"/>
-      <c r="AZ24" s="71"/>
-      <c r="BA24" s="71"/>
-      <c r="BB24" s="71"/>
-      <c r="BC24" s="71"/>
-      <c r="BD24" s="71"/>
-      <c r="BE24" s="71"/>
-      <c r="BF24" s="71"/>
-      <c r="BG24" s="71"/>
-      <c r="BH24" s="71"/>
-      <c r="BI24" s="71"/>
-      <c r="BJ24" s="71"/>
-      <c r="BK24" s="71"/>
+      <c r="AX24" s="64"/>
+      <c r="AY24" s="64"/>
+      <c r="AZ24" s="81"/>
+      <c r="BA24" s="81"/>
+      <c r="BB24" s="81"/>
+      <c r="BC24" s="81"/>
+      <c r="BD24" s="81"/>
+      <c r="BE24" s="81"/>
+      <c r="BF24" s="81"/>
+      <c r="BG24" s="81"/>
+      <c r="BH24" s="81"/>
+      <c r="BI24" s="81"/>
+      <c r="BJ24" s="81"/>
+      <c r="BK24" s="81"/>
       <c r="BL24" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="BM24" s="98" t="s">
+      <c r="BM24" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="BN24" s="71"/>
-      <c r="BO24" s="81"/>
-      <c r="BP24" s="81"/>
-      <c r="BQ24" s="81"/>
-      <c r="BR24" s="81"/>
+      <c r="BN24" s="81"/>
+      <c r="BO24" s="60"/>
+      <c r="BP24" s="60"/>
+      <c r="BQ24" s="60"/>
+      <c r="BR24" s="60"/>
       <c r="BS24" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="BT24" s="72" t="s">
+      <c r="BT24" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="BU24" s="73"/>
-      <c r="BV24" s="73"/>
-      <c r="BW24" s="73"/>
-      <c r="BX24" s="81"/>
-      <c r="BY24" s="81"/>
-      <c r="BZ24" s="81"/>
+      <c r="BU24" s="66"/>
+      <c r="BV24" s="66"/>
+      <c r="BW24" s="66"/>
+      <c r="BX24" s="60"/>
+      <c r="BY24" s="60"/>
+      <c r="BZ24" s="60"/>
       <c r="CA24" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="CB24" s="72" t="s">
+      <c r="CB24" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="CC24" s="73"/>
-      <c r="CD24" s="73"/>
-      <c r="CE24" s="81"/>
-      <c r="CF24" s="81"/>
-      <c r="CG24" s="81"/>
+      <c r="CC24" s="66"/>
+      <c r="CD24" s="66"/>
+      <c r="CE24" s="60"/>
+      <c r="CF24" s="60"/>
+      <c r="CG24" s="60"/>
       <c r="CH24" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="CI24" s="81"/>
-      <c r="CJ24" s="81"/>
-      <c r="CK24" s="81"/>
-      <c r="CL24" s="81"/>
-      <c r="CM24" s="81"/>
-      <c r="CN24" s="81"/>
+      <c r="CI24" s="60"/>
+      <c r="CJ24" s="60"/>
+      <c r="CK24" s="60"/>
+      <c r="CL24" s="60"/>
+      <c r="CM24" s="60"/>
+      <c r="CN24" s="60"/>
       <c r="CO24" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="CP24" s="70" t="s">
+      <c r="CP24" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="CQ24" s="59"/>
-      <c r="CR24" s="71"/>
-      <c r="CS24" s="71"/>
-      <c r="CT24" s="71"/>
-      <c r="CU24" s="71"/>
-      <c r="CV24" s="71"/>
-      <c r="CW24" s="71"/>
-      <c r="CX24" s="71"/>
-      <c r="CY24" s="71"/>
-      <c r="CZ24" s="71"/>
-      <c r="DA24" s="99"/>
+      <c r="CQ24" s="64"/>
+      <c r="CR24" s="81"/>
+      <c r="CS24" s="81"/>
+      <c r="CT24" s="81"/>
+      <c r="CU24" s="81"/>
+      <c r="CV24" s="81"/>
+      <c r="CW24" s="81"/>
+      <c r="CX24" s="81"/>
+      <c r="CY24" s="81"/>
+      <c r="CZ24" s="81"/>
+      <c r="DA24" s="85"/>
     </row>
-    <row r="25" spans="1:105" ht="12" customHeight="1">
-      <c r="A25" s="94"/>
+    <row r="25" spans="1:105" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="104"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -4811,46 +4815,46 @@
       <c r="BT25" s="10"/>
       <c r="BU25" s="10"/>
       <c r="BV25" s="10"/>
-      <c r="BW25" s="81"/>
-      <c r="BX25" s="81"/>
-      <c r="BY25" s="81"/>
-      <c r="BZ25" s="81"/>
-      <c r="CA25" s="81"/>
-      <c r="CB25" s="81"/>
-      <c r="CC25" s="81"/>
-      <c r="CD25" s="81"/>
-      <c r="CE25" s="81"/>
-      <c r="CF25" s="81"/>
-      <c r="CG25" s="81"/>
-      <c r="CH25" s="81"/>
-      <c r="CI25" s="81"/>
-      <c r="CJ25" s="81"/>
-      <c r="CK25" s="79" t="s">
+      <c r="BW25" s="60"/>
+      <c r="BX25" s="60"/>
+      <c r="BY25" s="60"/>
+      <c r="BZ25" s="60"/>
+      <c r="CA25" s="60"/>
+      <c r="CB25" s="60"/>
+      <c r="CC25" s="60"/>
+      <c r="CD25" s="60"/>
+      <c r="CE25" s="60"/>
+      <c r="CF25" s="60"/>
+      <c r="CG25" s="60"/>
+      <c r="CH25" s="60"/>
+      <c r="CI25" s="60"/>
+      <c r="CJ25" s="60"/>
+      <c r="CK25" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="CL25" s="80"/>
-      <c r="CM25" s="80"/>
+      <c r="CL25" s="62"/>
+      <c r="CM25" s="62"/>
       <c r="CN25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="CO25" s="59"/>
-      <c r="CP25" s="59"/>
-      <c r="CQ25" s="59"/>
-      <c r="CR25" s="59"/>
-      <c r="CS25" s="59"/>
-      <c r="CT25" s="59"/>
-      <c r="CU25" s="59"/>
-      <c r="CV25" s="59"/>
-      <c r="CW25" s="59"/>
-      <c r="CX25" s="72" t="s">
+      <c r="CO25" s="64"/>
+      <c r="CP25" s="64"/>
+      <c r="CQ25" s="64"/>
+      <c r="CR25" s="64"/>
+      <c r="CS25" s="64"/>
+      <c r="CT25" s="64"/>
+      <c r="CU25" s="64"/>
+      <c r="CV25" s="64"/>
+      <c r="CW25" s="64"/>
+      <c r="CX25" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="CY25" s="73"/>
-      <c r="CZ25" s="73"/>
+      <c r="CY25" s="66"/>
+      <c r="CZ25" s="66"/>
       <c r="DA25" s="12"/>
     </row>
-    <row r="26" spans="1:105" ht="8.1" customHeight="1">
-      <c r="A26" s="94"/>
+    <row r="26" spans="1:105" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="104"/>
       <c r="B26" s="9"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -4956,240 +4960,240 @@
       <c r="CZ26" s="19"/>
       <c r="DA26" s="33"/>
     </row>
-    <row r="27" spans="1:105" ht="53.25" customHeight="1">
-      <c r="A27" s="95"/>
+    <row r="27" spans="1:105" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="87"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="111" t="s">
+      <c r="C27" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="100" t="s">
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="101"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="101"/>
-      <c r="U27" s="101"/>
-      <c r="V27" s="101"/>
-      <c r="W27" s="101"/>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="101"/>
-      <c r="Z27" s="101"/>
-      <c r="AA27" s="101"/>
-      <c r="AB27" s="101"/>
-      <c r="AC27" s="102"/>
-      <c r="AD27" s="100" t="s">
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="68"/>
+      <c r="X27" s="68"/>
+      <c r="Y27" s="68"/>
+      <c r="Z27" s="68"/>
+      <c r="AA27" s="68"/>
+      <c r="AB27" s="68"/>
+      <c r="AC27" s="69"/>
+      <c r="AD27" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="AE27" s="101"/>
-      <c r="AF27" s="101"/>
-      <c r="AG27" s="101"/>
-      <c r="AH27" s="101"/>
-      <c r="AI27" s="101"/>
-      <c r="AJ27" s="101"/>
-      <c r="AK27" s="101"/>
-      <c r="AL27" s="101"/>
-      <c r="AM27" s="101"/>
-      <c r="AN27" s="101"/>
-      <c r="AO27" s="101"/>
-      <c r="AP27" s="101"/>
-      <c r="AQ27" s="101"/>
-      <c r="AR27" s="101"/>
-      <c r="AS27" s="101"/>
-      <c r="AT27" s="101"/>
-      <c r="AU27" s="101"/>
-      <c r="AV27" s="101"/>
-      <c r="AW27" s="101"/>
-      <c r="AX27" s="102"/>
-      <c r="AY27" s="100" t="s">
+      <c r="AE27" s="68"/>
+      <c r="AF27" s="68"/>
+      <c r="AG27" s="68"/>
+      <c r="AH27" s="68"/>
+      <c r="AI27" s="68"/>
+      <c r="AJ27" s="68"/>
+      <c r="AK27" s="68"/>
+      <c r="AL27" s="68"/>
+      <c r="AM27" s="68"/>
+      <c r="AN27" s="68"/>
+      <c r="AO27" s="68"/>
+      <c r="AP27" s="68"/>
+      <c r="AQ27" s="68"/>
+      <c r="AR27" s="68"/>
+      <c r="AS27" s="68"/>
+      <c r="AT27" s="68"/>
+      <c r="AU27" s="68"/>
+      <c r="AV27" s="68"/>
+      <c r="AW27" s="68"/>
+      <c r="AX27" s="69"/>
+      <c r="AY27" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="AZ27" s="101"/>
-      <c r="BA27" s="101"/>
-      <c r="BB27" s="101"/>
-      <c r="BC27" s="102"/>
-      <c r="BD27" s="100" t="s">
+      <c r="AZ27" s="68"/>
+      <c r="BA27" s="68"/>
+      <c r="BB27" s="68"/>
+      <c r="BC27" s="69"/>
+      <c r="BD27" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="BE27" s="101"/>
-      <c r="BF27" s="101"/>
-      <c r="BG27" s="101"/>
-      <c r="BH27" s="101"/>
-      <c r="BI27" s="101"/>
-      <c r="BJ27" s="101"/>
-      <c r="BK27" s="101"/>
-      <c r="BL27" s="101"/>
-      <c r="BM27" s="102"/>
-      <c r="BN27" s="100" t="s">
+      <c r="BE27" s="68"/>
+      <c r="BF27" s="68"/>
+      <c r="BG27" s="68"/>
+      <c r="BH27" s="68"/>
+      <c r="BI27" s="68"/>
+      <c r="BJ27" s="68"/>
+      <c r="BK27" s="68"/>
+      <c r="BL27" s="68"/>
+      <c r="BM27" s="69"/>
+      <c r="BN27" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="BO27" s="101"/>
-      <c r="BP27" s="101"/>
-      <c r="BQ27" s="101"/>
-      <c r="BR27" s="101"/>
-      <c r="BS27" s="101"/>
-      <c r="BT27" s="101"/>
-      <c r="BU27" s="101"/>
-      <c r="BV27" s="101"/>
-      <c r="BW27" s="102"/>
-      <c r="BX27" s="100" t="s">
+      <c r="BO27" s="68"/>
+      <c r="BP27" s="68"/>
+      <c r="BQ27" s="68"/>
+      <c r="BR27" s="68"/>
+      <c r="BS27" s="68"/>
+      <c r="BT27" s="68"/>
+      <c r="BU27" s="68"/>
+      <c r="BV27" s="68"/>
+      <c r="BW27" s="69"/>
+      <c r="BX27" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="BY27" s="101"/>
-      <c r="BZ27" s="101"/>
-      <c r="CA27" s="101"/>
-      <c r="CB27" s="101"/>
-      <c r="CC27" s="101"/>
-      <c r="CD27" s="101"/>
-      <c r="CE27" s="101"/>
-      <c r="CF27" s="101"/>
-      <c r="CG27" s="101"/>
-      <c r="CH27" s="101"/>
-      <c r="CI27" s="101"/>
-      <c r="CJ27" s="101"/>
-      <c r="CK27" s="101"/>
-      <c r="CL27" s="101"/>
-      <c r="CM27" s="101"/>
-      <c r="CN27" s="101"/>
-      <c r="CO27" s="101"/>
-      <c r="CP27" s="101"/>
-      <c r="CQ27" s="101"/>
-      <c r="CR27" s="101"/>
-      <c r="CS27" s="101"/>
-      <c r="CT27" s="101"/>
-      <c r="CU27" s="101"/>
-      <c r="CV27" s="101"/>
-      <c r="CW27" s="101"/>
-      <c r="CX27" s="101"/>
-      <c r="CY27" s="101"/>
-      <c r="CZ27" s="101"/>
-      <c r="DA27" s="102"/>
+      <c r="BY27" s="68"/>
+      <c r="BZ27" s="68"/>
+      <c r="CA27" s="68"/>
+      <c r="CB27" s="68"/>
+      <c r="CC27" s="68"/>
+      <c r="CD27" s="68"/>
+      <c r="CE27" s="68"/>
+      <c r="CF27" s="68"/>
+      <c r="CG27" s="68"/>
+      <c r="CH27" s="68"/>
+      <c r="CI27" s="68"/>
+      <c r="CJ27" s="68"/>
+      <c r="CK27" s="68"/>
+      <c r="CL27" s="68"/>
+      <c r="CM27" s="68"/>
+      <c r="CN27" s="68"/>
+      <c r="CO27" s="68"/>
+      <c r="CP27" s="68"/>
+      <c r="CQ27" s="68"/>
+      <c r="CR27" s="68"/>
+      <c r="CS27" s="68"/>
+      <c r="CT27" s="68"/>
+      <c r="CU27" s="68"/>
+      <c r="CV27" s="68"/>
+      <c r="CW27" s="68"/>
+      <c r="CX27" s="68"/>
+      <c r="CY27" s="68"/>
+      <c r="CZ27" s="68"/>
+      <c r="DA27" s="69"/>
     </row>
-    <row r="28" spans="1:105" ht="27" customHeight="1">
-      <c r="A28" s="94"/>
+    <row r="28" spans="1:105" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="104"/>
       <c r="B28" s="16"/>
-      <c r="C28" s="103">
+      <c r="C28" s="70">
         <v>1</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="101"/>
-      <c r="S28" s="101"/>
-      <c r="T28" s="101"/>
-      <c r="U28" s="101"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="101"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="101"/>
-      <c r="Z28" s="101"/>
-      <c r="AA28" s="101"/>
-      <c r="AB28" s="101"/>
-      <c r="AC28" s="102"/>
-      <c r="AD28" s="105"/>
-      <c r="AE28" s="101"/>
-      <c r="AF28" s="101"/>
-      <c r="AG28" s="101"/>
-      <c r="AH28" s="101"/>
-      <c r="AI28" s="101"/>
-      <c r="AJ28" s="101"/>
-      <c r="AK28" s="101"/>
-      <c r="AL28" s="101"/>
-      <c r="AM28" s="101"/>
-      <c r="AN28" s="101"/>
-      <c r="AO28" s="101"/>
-      <c r="AP28" s="101"/>
-      <c r="AQ28" s="101"/>
-      <c r="AR28" s="101"/>
-      <c r="AS28" s="101"/>
-      <c r="AT28" s="101"/>
-      <c r="AU28" s="101"/>
-      <c r="AV28" s="101"/>
-      <c r="AW28" s="101"/>
-      <c r="AX28" s="102"/>
-      <c r="AY28" s="106"/>
-      <c r="AZ28" s="107"/>
-      <c r="BA28" s="107"/>
-      <c r="BB28" s="107"/>
-      <c r="BC28" s="108"/>
-      <c r="BD28" s="109"/>
-      <c r="BE28" s="110"/>
-      <c r="BF28" s="110"/>
-      <c r="BG28" s="110"/>
-      <c r="BH28" s="110"/>
-      <c r="BI28" s="110"/>
-      <c r="BJ28" s="110"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="68"/>
+      <c r="Y28" s="68"/>
+      <c r="Z28" s="68"/>
+      <c r="AA28" s="68"/>
+      <c r="AB28" s="68"/>
+      <c r="AC28" s="69"/>
+      <c r="AD28" s="72"/>
+      <c r="AE28" s="68"/>
+      <c r="AF28" s="68"/>
+      <c r="AG28" s="68"/>
+      <c r="AH28" s="68"/>
+      <c r="AI28" s="68"/>
+      <c r="AJ28" s="68"/>
+      <c r="AK28" s="68"/>
+      <c r="AL28" s="68"/>
+      <c r="AM28" s="68"/>
+      <c r="AN28" s="68"/>
+      <c r="AO28" s="68"/>
+      <c r="AP28" s="68"/>
+      <c r="AQ28" s="68"/>
+      <c r="AR28" s="68"/>
+      <c r="AS28" s="68"/>
+      <c r="AT28" s="68"/>
+      <c r="AU28" s="68"/>
+      <c r="AV28" s="68"/>
+      <c r="AW28" s="68"/>
+      <c r="AX28" s="69"/>
+      <c r="AY28" s="73"/>
+      <c r="AZ28" s="74"/>
+      <c r="BA28" s="74"/>
+      <c r="BB28" s="74"/>
+      <c r="BC28" s="75"/>
+      <c r="BD28" s="76"/>
+      <c r="BE28" s="77"/>
+      <c r="BF28" s="77"/>
+      <c r="BG28" s="77"/>
+      <c r="BH28" s="77"/>
+      <c r="BI28" s="77"/>
+      <c r="BJ28" s="77"/>
       <c r="BK28" s="37" t="s">
         <v>2</v>
       </c>
       <c r="BL28" s="38"/>
       <c r="BM28" s="39"/>
-      <c r="BN28" s="106"/>
-      <c r="BO28" s="107"/>
-      <c r="BP28" s="107"/>
-      <c r="BQ28" s="107"/>
-      <c r="BR28" s="107"/>
-      <c r="BS28" s="107"/>
-      <c r="BT28" s="107"/>
-      <c r="BU28" s="107"/>
-      <c r="BV28" s="107"/>
-      <c r="BW28" s="108"/>
-      <c r="BX28" s="106"/>
-      <c r="BY28" s="107"/>
-      <c r="BZ28" s="107"/>
-      <c r="CA28" s="107"/>
-      <c r="CB28" s="107"/>
-      <c r="CC28" s="107"/>
-      <c r="CD28" s="107"/>
-      <c r="CE28" s="107"/>
-      <c r="CF28" s="107"/>
-      <c r="CG28" s="107"/>
-      <c r="CH28" s="107"/>
-      <c r="CI28" s="107"/>
-      <c r="CJ28" s="107"/>
-      <c r="CK28" s="107"/>
-      <c r="CL28" s="107"/>
-      <c r="CM28" s="107"/>
-      <c r="CN28" s="107"/>
-      <c r="CO28" s="107"/>
-      <c r="CP28" s="107"/>
-      <c r="CQ28" s="107"/>
-      <c r="CR28" s="107"/>
-      <c r="CS28" s="107"/>
-      <c r="CT28" s="107"/>
-      <c r="CU28" s="107"/>
-      <c r="CV28" s="107"/>
-      <c r="CW28" s="107"/>
-      <c r="CX28" s="107"/>
-      <c r="CY28" s="107"/>
-      <c r="CZ28" s="107"/>
-      <c r="DA28" s="108"/>
+      <c r="BN28" s="73"/>
+      <c r="BO28" s="74"/>
+      <c r="BP28" s="74"/>
+      <c r="BQ28" s="74"/>
+      <c r="BR28" s="74"/>
+      <c r="BS28" s="74"/>
+      <c r="BT28" s="74"/>
+      <c r="BU28" s="74"/>
+      <c r="BV28" s="74"/>
+      <c r="BW28" s="75"/>
+      <c r="BX28" s="73"/>
+      <c r="BY28" s="74"/>
+      <c r="BZ28" s="74"/>
+      <c r="CA28" s="74"/>
+      <c r="CB28" s="74"/>
+      <c r="CC28" s="74"/>
+      <c r="CD28" s="74"/>
+      <c r="CE28" s="74"/>
+      <c r="CF28" s="74"/>
+      <c r="CG28" s="74"/>
+      <c r="CH28" s="74"/>
+      <c r="CI28" s="74"/>
+      <c r="CJ28" s="74"/>
+      <c r="CK28" s="74"/>
+      <c r="CL28" s="74"/>
+      <c r="CM28" s="74"/>
+      <c r="CN28" s="74"/>
+      <c r="CO28" s="74"/>
+      <c r="CP28" s="74"/>
+      <c r="CQ28" s="74"/>
+      <c r="CR28" s="74"/>
+      <c r="CS28" s="74"/>
+      <c r="CT28" s="74"/>
+      <c r="CU28" s="74"/>
+      <c r="CV28" s="74"/>
+      <c r="CW28" s="74"/>
+      <c r="CX28" s="74"/>
+      <c r="CY28" s="74"/>
+      <c r="CZ28" s="74"/>
+      <c r="DA28" s="75"/>
     </row>
-    <row r="29" spans="1:105" ht="8.1" customHeight="1">
-      <c r="A29" s="94"/>
+    <row r="29" spans="1:105" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="104"/>
       <c r="B29" s="9"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -5295,8 +5299,8 @@
       <c r="CZ29" s="7"/>
       <c r="DA29" s="8"/>
     </row>
-    <row r="30" spans="1:105" ht="15" customHeight="1">
-      <c r="A30" s="94"/>
+    <row r="30" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="104"/>
       <c r="B30" s="9"/>
       <c r="C30" s="18" t="s">
         <v>35</v>
@@ -5310,47 +5314,47 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="72" t="s">
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="W30" s="73"/>
-      <c r="X30" s="73"/>
-      <c r="Y30" s="73"/>
-      <c r="Z30" s="73"/>
-      <c r="AA30" s="73"/>
-      <c r="AB30" s="73"/>
-      <c r="AC30" s="62"/>
-      <c r="AD30" s="62"/>
-      <c r="AE30" s="62"/>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="62"/>
-      <c r="AH30" s="62"/>
-      <c r="AI30" s="72" t="s">
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="66"/>
+      <c r="AC30" s="55"/>
+      <c r="AD30" s="55"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="AJ30" s="73"/>
-      <c r="AK30" s="73"/>
-      <c r="AL30" s="62"/>
-      <c r="AM30" s="62"/>
-      <c r="AN30" s="62"/>
-      <c r="AO30" s="62"/>
-      <c r="AP30" s="62"/>
-      <c r="AQ30" s="62"/>
-      <c r="AR30" s="62"/>
-      <c r="AS30" s="62"/>
-      <c r="AT30" s="62"/>
-      <c r="AU30" s="62"/>
-      <c r="AV30" s="62"/>
-      <c r="AW30" s="62"/>
+      <c r="AJ30" s="66"/>
+      <c r="AK30" s="66"/>
+      <c r="AL30" s="55"/>
+      <c r="AM30" s="55"/>
+      <c r="AN30" s="55"/>
+      <c r="AO30" s="55"/>
+      <c r="AP30" s="55"/>
+      <c r="AQ30" s="55"/>
+      <c r="AR30" s="55"/>
+      <c r="AS30" s="55"/>
+      <c r="AT30" s="55"/>
+      <c r="AU30" s="55"/>
+      <c r="AV30" s="55"/>
+      <c r="AW30" s="55"/>
       <c r="AX30" s="18" t="s">
         <v>37</v>
       </c>
@@ -5363,30 +5367,30 @@
       <c r="BE30" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="BF30" s="62"/>
-      <c r="BG30" s="62"/>
-      <c r="BH30" s="62"/>
+      <c r="BF30" s="55"/>
+      <c r="BG30" s="55"/>
+      <c r="BH30" s="55"/>
       <c r="BI30" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="BJ30" s="62"/>
-      <c r="BK30" s="62"/>
-      <c r="BL30" s="62"/>
-      <c r="BM30" s="62"/>
-      <c r="BN30" s="62"/>
-      <c r="BO30" s="62"/>
-      <c r="BP30" s="62"/>
-      <c r="BQ30" s="62"/>
-      <c r="BR30" s="62"/>
-      <c r="BS30" s="62"/>
+      <c r="BJ30" s="55"/>
+      <c r="BK30" s="55"/>
+      <c r="BL30" s="55"/>
+      <c r="BM30" s="55"/>
+      <c r="BN30" s="55"/>
+      <c r="BO30" s="55"/>
+      <c r="BP30" s="55"/>
+      <c r="BQ30" s="55"/>
+      <c r="BR30" s="55"/>
+      <c r="BS30" s="55"/>
       <c r="BT30" s="10"/>
-      <c r="BU30" s="115">
+      <c r="BU30" s="90">
         <v>20</v>
       </c>
-      <c r="BV30" s="73"/>
-      <c r="BW30" s="62"/>
-      <c r="BX30" s="62"/>
-      <c r="BY30" s="62"/>
+      <c r="BV30" s="66"/>
+      <c r="BW30" s="55"/>
+      <c r="BX30" s="55"/>
+      <c r="BY30" s="55"/>
       <c r="BZ30" s="18" t="s">
         <v>17</v>
       </c>
@@ -5418,8 +5422,8 @@
       <c r="CZ30" s="10"/>
       <c r="DA30" s="12"/>
     </row>
-    <row r="31" spans="1:105" ht="10.5" customHeight="1">
-      <c r="A31" s="94"/>
+    <row r="31" spans="1:105" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="104"/>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -5527,8 +5531,8 @@
       <c r="CZ31" s="10"/>
       <c r="DA31" s="12"/>
     </row>
-    <row r="32" spans="1:105" ht="15.75" customHeight="1">
-      <c r="A32" s="94"/>
+    <row r="32" spans="1:105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="104"/>
       <c r="B32" s="9"/>
       <c r="C32" s="18" t="s">
         <v>40</v>
@@ -5537,216 +5541,216 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="116"/>
-      <c r="T32" s="116"/>
-      <c r="U32" s="116"/>
-      <c r="V32" s="116"/>
-      <c r="W32" s="116"/>
-      <c r="X32" s="116"/>
-      <c r="Y32" s="116"/>
-      <c r="Z32" s="116"/>
-      <c r="AA32" s="116"/>
-      <c r="AB32" s="116"/>
-      <c r="AC32" s="116"/>
-      <c r="AD32" s="116"/>
-      <c r="AE32" s="116"/>
-      <c r="AF32" s="116"/>
-      <c r="AG32" s="116"/>
-      <c r="AH32" s="116"/>
-      <c r="AI32" s="116"/>
-      <c r="AJ32" s="116"/>
-      <c r="AK32" s="116"/>
-      <c r="AL32" s="116"/>
-      <c r="AM32" s="116"/>
-      <c r="AN32" s="116"/>
-      <c r="AO32" s="116"/>
-      <c r="AP32" s="116"/>
-      <c r="AQ32" s="116"/>
-      <c r="AR32" s="116"/>
-      <c r="AS32" s="116"/>
-      <c r="AT32" s="116"/>
-      <c r="AU32" s="116"/>
-      <c r="AV32" s="116"/>
-      <c r="AW32" s="116"/>
-      <c r="AX32" s="116"/>
-      <c r="AY32" s="116"/>
-      <c r="AZ32" s="116"/>
-      <c r="BA32" s="116"/>
-      <c r="BB32" s="116"/>
-      <c r="BC32" s="116"/>
-      <c r="BD32" s="116"/>
-      <c r="BE32" s="116"/>
-      <c r="BF32" s="116"/>
-      <c r="BG32" s="116"/>
-      <c r="BH32" s="116"/>
-      <c r="BI32" s="116"/>
-      <c r="BJ32" s="116"/>
-      <c r="BK32" s="116"/>
-      <c r="BL32" s="116"/>
-      <c r="BM32" s="116"/>
-      <c r="BN32" s="116"/>
-      <c r="BO32" s="116"/>
-      <c r="BP32" s="116"/>
-      <c r="BQ32" s="116"/>
-      <c r="BR32" s="116"/>
-      <c r="BS32" s="116"/>
-      <c r="BT32" s="116"/>
-      <c r="BU32" s="116"/>
-      <c r="BV32" s="116"/>
-      <c r="BW32" s="116"/>
-      <c r="BX32" s="116"/>
-      <c r="BY32" s="116"/>
-      <c r="BZ32" s="116"/>
-      <c r="CA32" s="116"/>
-      <c r="CB32" s="116"/>
-      <c r="CC32" s="116"/>
-      <c r="CD32" s="116"/>
-      <c r="CE32" s="116"/>
-      <c r="CF32" s="116"/>
-      <c r="CG32" s="116"/>
-      <c r="CH32" s="116"/>
-      <c r="CI32" s="116"/>
-      <c r="CJ32" s="116"/>
-      <c r="CK32" s="116"/>
-      <c r="CL32" s="116"/>
-      <c r="CM32" s="116"/>
-      <c r="CN32" s="116"/>
-      <c r="CO32" s="116"/>
-      <c r="CP32" s="116"/>
-      <c r="CQ32" s="116"/>
-      <c r="CR32" s="116"/>
-      <c r="CS32" s="116"/>
-      <c r="CT32" s="116"/>
-      <c r="CU32" s="116"/>
-      <c r="CV32" s="116"/>
-      <c r="CW32" s="116"/>
-      <c r="CX32" s="116"/>
-      <c r="CY32" s="116"/>
-      <c r="CZ32" s="116"/>
-      <c r="DA32" s="117"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="91"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="91"/>
+      <c r="U32" s="91"/>
+      <c r="V32" s="91"/>
+      <c r="W32" s="91"/>
+      <c r="X32" s="91"/>
+      <c r="Y32" s="91"/>
+      <c r="Z32" s="91"/>
+      <c r="AA32" s="91"/>
+      <c r="AB32" s="91"/>
+      <c r="AC32" s="91"/>
+      <c r="AD32" s="91"/>
+      <c r="AE32" s="91"/>
+      <c r="AF32" s="91"/>
+      <c r="AG32" s="91"/>
+      <c r="AH32" s="91"/>
+      <c r="AI32" s="91"/>
+      <c r="AJ32" s="91"/>
+      <c r="AK32" s="91"/>
+      <c r="AL32" s="91"/>
+      <c r="AM32" s="91"/>
+      <c r="AN32" s="91"/>
+      <c r="AO32" s="91"/>
+      <c r="AP32" s="91"/>
+      <c r="AQ32" s="91"/>
+      <c r="AR32" s="91"/>
+      <c r="AS32" s="91"/>
+      <c r="AT32" s="91"/>
+      <c r="AU32" s="91"/>
+      <c r="AV32" s="91"/>
+      <c r="AW32" s="91"/>
+      <c r="AX32" s="91"/>
+      <c r="AY32" s="91"/>
+      <c r="AZ32" s="91"/>
+      <c r="BA32" s="91"/>
+      <c r="BB32" s="91"/>
+      <c r="BC32" s="91"/>
+      <c r="BD32" s="91"/>
+      <c r="BE32" s="91"/>
+      <c r="BF32" s="91"/>
+      <c r="BG32" s="91"/>
+      <c r="BH32" s="91"/>
+      <c r="BI32" s="91"/>
+      <c r="BJ32" s="91"/>
+      <c r="BK32" s="91"/>
+      <c r="BL32" s="91"/>
+      <c r="BM32" s="91"/>
+      <c r="BN32" s="91"/>
+      <c r="BO32" s="91"/>
+      <c r="BP32" s="91"/>
+      <c r="BQ32" s="91"/>
+      <c r="BR32" s="91"/>
+      <c r="BS32" s="91"/>
+      <c r="BT32" s="91"/>
+      <c r="BU32" s="91"/>
+      <c r="BV32" s="91"/>
+      <c r="BW32" s="91"/>
+      <c r="BX32" s="91"/>
+      <c r="BY32" s="91"/>
+      <c r="BZ32" s="91"/>
+      <c r="CA32" s="91"/>
+      <c r="CB32" s="91"/>
+      <c r="CC32" s="91"/>
+      <c r="CD32" s="91"/>
+      <c r="CE32" s="91"/>
+      <c r="CF32" s="91"/>
+      <c r="CG32" s="91"/>
+      <c r="CH32" s="91"/>
+      <c r="CI32" s="91"/>
+      <c r="CJ32" s="91"/>
+      <c r="CK32" s="91"/>
+      <c r="CL32" s="91"/>
+      <c r="CM32" s="91"/>
+      <c r="CN32" s="91"/>
+      <c r="CO32" s="91"/>
+      <c r="CP32" s="91"/>
+      <c r="CQ32" s="91"/>
+      <c r="CR32" s="91"/>
+      <c r="CS32" s="91"/>
+      <c r="CT32" s="91"/>
+      <c r="CU32" s="91"/>
+      <c r="CV32" s="91"/>
+      <c r="CW32" s="91"/>
+      <c r="CX32" s="91"/>
+      <c r="CY32" s="91"/>
+      <c r="CZ32" s="91"/>
+      <c r="DA32" s="92"/>
     </row>
-    <row r="33" spans="1:105" ht="10.5" customHeight="1">
-      <c r="A33" s="94"/>
+    <row r="33" spans="1:105" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="104"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="68" t="s">
+      <c r="H33" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="69"/>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="69"/>
-      <c r="AA33" s="69"/>
-      <c r="AB33" s="69"/>
-      <c r="AC33" s="69"/>
-      <c r="AD33" s="69"/>
-      <c r="AE33" s="69"/>
-      <c r="AF33" s="69"/>
-      <c r="AG33" s="69"/>
-      <c r="AH33" s="69"/>
-      <c r="AI33" s="69"/>
-      <c r="AJ33" s="69"/>
-      <c r="AK33" s="69"/>
-      <c r="AL33" s="69"/>
-      <c r="AM33" s="69"/>
-      <c r="AN33" s="69"/>
-      <c r="AO33" s="69"/>
-      <c r="AP33" s="69"/>
-      <c r="AQ33" s="69"/>
-      <c r="AR33" s="69"/>
-      <c r="AS33" s="69"/>
-      <c r="AT33" s="69"/>
-      <c r="AU33" s="69"/>
-      <c r="AV33" s="69"/>
-      <c r="AW33" s="69"/>
-      <c r="AX33" s="69"/>
-      <c r="AY33" s="69"/>
-      <c r="AZ33" s="69"/>
-      <c r="BA33" s="69"/>
-      <c r="BB33" s="69"/>
-      <c r="BC33" s="69"/>
-      <c r="BD33" s="69"/>
-      <c r="BE33" s="69"/>
-      <c r="BF33" s="69"/>
-      <c r="BG33" s="69"/>
-      <c r="BH33" s="69"/>
-      <c r="BI33" s="69"/>
-      <c r="BJ33" s="69"/>
-      <c r="BK33" s="69"/>
-      <c r="BL33" s="69"/>
-      <c r="BM33" s="69"/>
-      <c r="BN33" s="69"/>
-      <c r="BO33" s="69"/>
-      <c r="BP33" s="69"/>
-      <c r="BQ33" s="69"/>
-      <c r="BR33" s="69"/>
-      <c r="BS33" s="69"/>
-      <c r="BT33" s="69"/>
-      <c r="BU33" s="69"/>
-      <c r="BV33" s="69"/>
-      <c r="BW33" s="69"/>
-      <c r="BX33" s="69"/>
-      <c r="BY33" s="69"/>
-      <c r="BZ33" s="69"/>
-      <c r="CA33" s="69"/>
-      <c r="CB33" s="69"/>
-      <c r="CC33" s="69"/>
-      <c r="CD33" s="69"/>
-      <c r="CE33" s="69"/>
-      <c r="CF33" s="69"/>
-      <c r="CG33" s="69"/>
-      <c r="CH33" s="69"/>
-      <c r="CI33" s="69"/>
-      <c r="CJ33" s="69"/>
-      <c r="CK33" s="69"/>
-      <c r="CL33" s="69"/>
-      <c r="CM33" s="69"/>
-      <c r="CN33" s="69"/>
-      <c r="CO33" s="69"/>
-      <c r="CP33" s="69"/>
-      <c r="CQ33" s="69"/>
-      <c r="CR33" s="69"/>
-      <c r="CS33" s="69"/>
-      <c r="CT33" s="69"/>
-      <c r="CU33" s="69"/>
-      <c r="CV33" s="69"/>
-      <c r="CW33" s="69"/>
-      <c r="CX33" s="69"/>
-      <c r="CY33" s="69"/>
-      <c r="CZ33" s="69"/>
-      <c r="DA33" s="114"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="54"/>
+      <c r="AE33" s="54"/>
+      <c r="AF33" s="54"/>
+      <c r="AG33" s="54"/>
+      <c r="AH33" s="54"/>
+      <c r="AI33" s="54"/>
+      <c r="AJ33" s="54"/>
+      <c r="AK33" s="54"/>
+      <c r="AL33" s="54"/>
+      <c r="AM33" s="54"/>
+      <c r="AN33" s="54"/>
+      <c r="AO33" s="54"/>
+      <c r="AP33" s="54"/>
+      <c r="AQ33" s="54"/>
+      <c r="AR33" s="54"/>
+      <c r="AS33" s="54"/>
+      <c r="AT33" s="54"/>
+      <c r="AU33" s="54"/>
+      <c r="AV33" s="54"/>
+      <c r="AW33" s="54"/>
+      <c r="AX33" s="54"/>
+      <c r="AY33" s="54"/>
+      <c r="AZ33" s="54"/>
+      <c r="BA33" s="54"/>
+      <c r="BB33" s="54"/>
+      <c r="BC33" s="54"/>
+      <c r="BD33" s="54"/>
+      <c r="BE33" s="54"/>
+      <c r="BF33" s="54"/>
+      <c r="BG33" s="54"/>
+      <c r="BH33" s="54"/>
+      <c r="BI33" s="54"/>
+      <c r="BJ33" s="54"/>
+      <c r="BK33" s="54"/>
+      <c r="BL33" s="54"/>
+      <c r="BM33" s="54"/>
+      <c r="BN33" s="54"/>
+      <c r="BO33" s="54"/>
+      <c r="BP33" s="54"/>
+      <c r="BQ33" s="54"/>
+      <c r="BR33" s="54"/>
+      <c r="BS33" s="54"/>
+      <c r="BT33" s="54"/>
+      <c r="BU33" s="54"/>
+      <c r="BV33" s="54"/>
+      <c r="BW33" s="54"/>
+      <c r="BX33" s="54"/>
+      <c r="BY33" s="54"/>
+      <c r="BZ33" s="54"/>
+      <c r="CA33" s="54"/>
+      <c r="CB33" s="54"/>
+      <c r="CC33" s="54"/>
+      <c r="CD33" s="54"/>
+      <c r="CE33" s="54"/>
+      <c r="CF33" s="54"/>
+      <c r="CG33" s="54"/>
+      <c r="CH33" s="54"/>
+      <c r="CI33" s="54"/>
+      <c r="CJ33" s="54"/>
+      <c r="CK33" s="54"/>
+      <c r="CL33" s="54"/>
+      <c r="CM33" s="54"/>
+      <c r="CN33" s="54"/>
+      <c r="CO33" s="54"/>
+      <c r="CP33" s="54"/>
+      <c r="CQ33" s="54"/>
+      <c r="CR33" s="54"/>
+      <c r="CS33" s="54"/>
+      <c r="CT33" s="54"/>
+      <c r="CU33" s="54"/>
+      <c r="CV33" s="54"/>
+      <c r="CW33" s="54"/>
+      <c r="CX33" s="54"/>
+      <c r="CY33" s="54"/>
+      <c r="CZ33" s="54"/>
+      <c r="DA33" s="84"/>
     </row>
-    <row r="34" spans="1:105" ht="15" customHeight="1">
-      <c r="A34" s="94"/>
+    <row r="34" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="104"/>
       <c r="B34" s="9"/>
       <c r="C34" s="18" t="s">
         <v>42</v>
@@ -5761,111 +5765,111 @@
       <c r="K34" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
       <c r="P34" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="62"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="62"/>
-      <c r="AA34" s="62"/>
-      <c r="AB34" s="62"/>
-      <c r="AC34" s="62"/>
-      <c r="AD34" s="62"/>
-      <c r="AE34" s="62"/>
-      <c r="AF34" s="62"/>
-      <c r="AG34" s="62"/>
-      <c r="AH34" s="62"/>
-      <c r="AI34" s="115">
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="55"/>
+      <c r="Z34" s="55"/>
+      <c r="AA34" s="55"/>
+      <c r="AB34" s="55"/>
+      <c r="AC34" s="55"/>
+      <c r="AD34" s="55"/>
+      <c r="AE34" s="55"/>
+      <c r="AF34" s="55"/>
+      <c r="AG34" s="55"/>
+      <c r="AH34" s="55"/>
+      <c r="AI34" s="90">
         <v>20</v>
       </c>
-      <c r="AJ34" s="73"/>
-      <c r="AK34" s="73"/>
-      <c r="AL34" s="116"/>
-      <c r="AM34" s="116"/>
-      <c r="AN34" s="116"/>
-      <c r="AO34" s="116"/>
-      <c r="AP34" s="116"/>
-      <c r="AQ34" s="72" t="s">
+      <c r="AJ34" s="66"/>
+      <c r="AK34" s="66"/>
+      <c r="AL34" s="91"/>
+      <c r="AM34" s="91"/>
+      <c r="AN34" s="91"/>
+      <c r="AO34" s="91"/>
+      <c r="AP34" s="91"/>
+      <c r="AQ34" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AR34" s="73"/>
-      <c r="AS34" s="62"/>
-      <c r="AT34" s="62"/>
-      <c r="AU34" s="62"/>
-      <c r="AV34" s="62"/>
-      <c r="AW34" s="62"/>
-      <c r="AX34" s="62"/>
-      <c r="AY34" s="62"/>
-      <c r="AZ34" s="62"/>
-      <c r="BA34" s="62"/>
-      <c r="BB34" s="62"/>
-      <c r="BC34" s="62"/>
-      <c r="BD34" s="62"/>
-      <c r="BE34" s="62"/>
-      <c r="BF34" s="62"/>
+      <c r="AR34" s="66"/>
+      <c r="AS34" s="55"/>
+      <c r="AT34" s="55"/>
+      <c r="AU34" s="55"/>
+      <c r="AV34" s="55"/>
+      <c r="AW34" s="55"/>
+      <c r="AX34" s="55"/>
+      <c r="AY34" s="55"/>
+      <c r="AZ34" s="55"/>
+      <c r="BA34" s="55"/>
+      <c r="BB34" s="55"/>
+      <c r="BC34" s="55"/>
+      <c r="BD34" s="55"/>
+      <c r="BE34" s="55"/>
+      <c r="BF34" s="55"/>
       <c r="BG34" s="18" t="s">
         <v>43</v>
       </c>
       <c r="BH34" s="10"/>
       <c r="BI34" s="10"/>
       <c r="BJ34" s="10"/>
-      <c r="BK34" s="62"/>
-      <c r="BL34" s="62"/>
-      <c r="BM34" s="62"/>
-      <c r="BN34" s="62"/>
-      <c r="BO34" s="62"/>
-      <c r="BP34" s="62"/>
-      <c r="BQ34" s="62"/>
-      <c r="BR34" s="62"/>
-      <c r="BS34" s="62"/>
-      <c r="BT34" s="62"/>
-      <c r="BU34" s="62"/>
-      <c r="BV34" s="62"/>
-      <c r="BW34" s="62"/>
-      <c r="BX34" s="62"/>
-      <c r="BY34" s="62"/>
-      <c r="BZ34" s="62"/>
-      <c r="CA34" s="62"/>
-      <c r="CB34" s="62"/>
-      <c r="CC34" s="62"/>
-      <c r="CD34" s="62"/>
-      <c r="CE34" s="62"/>
-      <c r="CF34" s="62"/>
-      <c r="CG34" s="62"/>
-      <c r="CH34" s="62"/>
-      <c r="CI34" s="62"/>
-      <c r="CJ34" s="62"/>
-      <c r="CK34" s="62"/>
-      <c r="CL34" s="62"/>
-      <c r="CM34" s="62"/>
-      <c r="CN34" s="62"/>
-      <c r="CO34" s="62"/>
-      <c r="CP34" s="62"/>
-      <c r="CQ34" s="62"/>
-      <c r="CR34" s="62"/>
-      <c r="CS34" s="62"/>
-      <c r="CT34" s="62"/>
-      <c r="CU34" s="62"/>
-      <c r="CV34" s="62"/>
-      <c r="CW34" s="62"/>
-      <c r="CX34" s="62"/>
-      <c r="CY34" s="62"/>
-      <c r="CZ34" s="62"/>
-      <c r="DA34" s="92"/>
+      <c r="BK34" s="55"/>
+      <c r="BL34" s="55"/>
+      <c r="BM34" s="55"/>
+      <c r="BN34" s="55"/>
+      <c r="BO34" s="55"/>
+      <c r="BP34" s="55"/>
+      <c r="BQ34" s="55"/>
+      <c r="BR34" s="55"/>
+      <c r="BS34" s="55"/>
+      <c r="BT34" s="55"/>
+      <c r="BU34" s="55"/>
+      <c r="BV34" s="55"/>
+      <c r="BW34" s="55"/>
+      <c r="BX34" s="55"/>
+      <c r="BY34" s="55"/>
+      <c r="BZ34" s="55"/>
+      <c r="CA34" s="55"/>
+      <c r="CB34" s="55"/>
+      <c r="CC34" s="55"/>
+      <c r="CD34" s="55"/>
+      <c r="CE34" s="55"/>
+      <c r="CF34" s="55"/>
+      <c r="CG34" s="55"/>
+      <c r="CH34" s="55"/>
+      <c r="CI34" s="55"/>
+      <c r="CJ34" s="55"/>
+      <c r="CK34" s="55"/>
+      <c r="CL34" s="55"/>
+      <c r="CM34" s="55"/>
+      <c r="CN34" s="55"/>
+      <c r="CO34" s="55"/>
+      <c r="CP34" s="55"/>
+      <c r="CQ34" s="55"/>
+      <c r="CR34" s="55"/>
+      <c r="CS34" s="55"/>
+      <c r="CT34" s="55"/>
+      <c r="CU34" s="55"/>
+      <c r="CV34" s="55"/>
+      <c r="CW34" s="55"/>
+      <c r="CX34" s="55"/>
+      <c r="CY34" s="55"/>
+      <c r="CZ34" s="55"/>
+      <c r="DA34" s="83"/>
     </row>
-    <row r="35" spans="1:105" ht="13.15" customHeight="1">
-      <c r="A35" s="94"/>
+    <row r="35" spans="1:105" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="104"/>
       <c r="B35" s="9"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -5909,74 +5913,74 @@
       <c r="AP35" s="7"/>
       <c r="AQ35" s="10"/>
       <c r="AR35" s="10"/>
-      <c r="AS35" s="68" t="s">
+      <c r="AS35" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="AT35" s="69"/>
-      <c r="AU35" s="69"/>
-      <c r="AV35" s="69"/>
-      <c r="AW35" s="69"/>
-      <c r="AX35" s="69"/>
-      <c r="AY35" s="69"/>
-      <c r="AZ35" s="69"/>
-      <c r="BA35" s="69"/>
-      <c r="BB35" s="69"/>
-      <c r="BC35" s="69"/>
-      <c r="BD35" s="69"/>
-      <c r="BE35" s="69"/>
-      <c r="BF35" s="69"/>
+      <c r="AT35" s="54"/>
+      <c r="AU35" s="54"/>
+      <c r="AV35" s="54"/>
+      <c r="AW35" s="54"/>
+      <c r="AX35" s="54"/>
+      <c r="AY35" s="54"/>
+      <c r="AZ35" s="54"/>
+      <c r="BA35" s="54"/>
+      <c r="BB35" s="54"/>
+      <c r="BC35" s="54"/>
+      <c r="BD35" s="54"/>
+      <c r="BE35" s="54"/>
+      <c r="BF35" s="54"/>
       <c r="BG35" s="10"/>
       <c r="BH35" s="10"/>
       <c r="BI35" s="10"/>
       <c r="BJ35" s="10"/>
-      <c r="BK35" s="68" t="s">
+      <c r="BK35" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="BL35" s="69"/>
-      <c r="BM35" s="69"/>
-      <c r="BN35" s="69"/>
-      <c r="BO35" s="69"/>
-      <c r="BP35" s="69"/>
-      <c r="BQ35" s="69"/>
-      <c r="BR35" s="69"/>
-      <c r="BS35" s="69"/>
-      <c r="BT35" s="69"/>
-      <c r="BU35" s="69"/>
-      <c r="BV35" s="69"/>
-      <c r="BW35" s="69"/>
-      <c r="BX35" s="69"/>
-      <c r="BY35" s="69"/>
-      <c r="BZ35" s="69"/>
-      <c r="CA35" s="69"/>
-      <c r="CB35" s="69"/>
-      <c r="CC35" s="69"/>
-      <c r="CD35" s="69"/>
-      <c r="CE35" s="69"/>
-      <c r="CF35" s="69"/>
-      <c r="CG35" s="69"/>
-      <c r="CH35" s="69"/>
-      <c r="CI35" s="69"/>
-      <c r="CJ35" s="69"/>
-      <c r="CK35" s="69"/>
-      <c r="CL35" s="69"/>
-      <c r="CM35" s="69"/>
-      <c r="CN35" s="69"/>
-      <c r="CO35" s="69"/>
-      <c r="CP35" s="69"/>
-      <c r="CQ35" s="69"/>
-      <c r="CR35" s="69"/>
-      <c r="CS35" s="69"/>
-      <c r="CT35" s="69"/>
-      <c r="CU35" s="69"/>
-      <c r="CV35" s="69"/>
-      <c r="CW35" s="69"/>
-      <c r="CX35" s="69"/>
-      <c r="CY35" s="69"/>
-      <c r="CZ35" s="69"/>
-      <c r="DA35" s="114"/>
+      <c r="BL35" s="54"/>
+      <c r="BM35" s="54"/>
+      <c r="BN35" s="54"/>
+      <c r="BO35" s="54"/>
+      <c r="BP35" s="54"/>
+      <c r="BQ35" s="54"/>
+      <c r="BR35" s="54"/>
+      <c r="BS35" s="54"/>
+      <c r="BT35" s="54"/>
+      <c r="BU35" s="54"/>
+      <c r="BV35" s="54"/>
+      <c r="BW35" s="54"/>
+      <c r="BX35" s="54"/>
+      <c r="BY35" s="54"/>
+      <c r="BZ35" s="54"/>
+      <c r="CA35" s="54"/>
+      <c r="CB35" s="54"/>
+      <c r="CC35" s="54"/>
+      <c r="CD35" s="54"/>
+      <c r="CE35" s="54"/>
+      <c r="CF35" s="54"/>
+      <c r="CG35" s="54"/>
+      <c r="CH35" s="54"/>
+      <c r="CI35" s="54"/>
+      <c r="CJ35" s="54"/>
+      <c r="CK35" s="54"/>
+      <c r="CL35" s="54"/>
+      <c r="CM35" s="54"/>
+      <c r="CN35" s="54"/>
+      <c r="CO35" s="54"/>
+      <c r="CP35" s="54"/>
+      <c r="CQ35" s="54"/>
+      <c r="CR35" s="54"/>
+      <c r="CS35" s="54"/>
+      <c r="CT35" s="54"/>
+      <c r="CU35" s="54"/>
+      <c r="CV35" s="54"/>
+      <c r="CW35" s="54"/>
+      <c r="CX35" s="54"/>
+      <c r="CY35" s="54"/>
+      <c r="CZ35" s="54"/>
+      <c r="DA35" s="84"/>
     </row>
-    <row r="36" spans="1:105" ht="8.1" customHeight="1">
-      <c r="A36" s="94"/>
+    <row r="36" spans="1:105" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="104"/>
       <c r="B36" s="9"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -6082,119 +6086,119 @@
       <c r="CZ36" s="19"/>
       <c r="DA36" s="33"/>
     </row>
-    <row r="37" spans="1:105" ht="11.25" customHeight="1">
-      <c r="A37" s="113" t="s">
+    <row r="37" spans="1:105" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="86" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="9"/>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="69"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="69"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="69"/>
-      <c r="X37" s="69"/>
-      <c r="Y37" s="69"/>
-      <c r="Z37" s="69"/>
-      <c r="AA37" s="69"/>
-      <c r="AB37" s="69"/>
-      <c r="AC37" s="69"/>
-      <c r="AD37" s="69"/>
-      <c r="AE37" s="69"/>
-      <c r="AF37" s="69"/>
-      <c r="AG37" s="69"/>
-      <c r="AH37" s="69"/>
-      <c r="AI37" s="69"/>
-      <c r="AJ37" s="69"/>
-      <c r="AK37" s="69"/>
-      <c r="AL37" s="69"/>
-      <c r="AM37" s="69"/>
-      <c r="AN37" s="69"/>
-      <c r="AO37" s="69"/>
-      <c r="AP37" s="69"/>
-      <c r="AQ37" s="69"/>
-      <c r="AR37" s="69"/>
-      <c r="AS37" s="69"/>
-      <c r="AT37" s="69"/>
-      <c r="AU37" s="69"/>
-      <c r="AV37" s="69"/>
-      <c r="AW37" s="69"/>
-      <c r="AX37" s="69"/>
-      <c r="AY37" s="69"/>
-      <c r="AZ37" s="69"/>
-      <c r="BA37" s="69"/>
-      <c r="BB37" s="69"/>
-      <c r="BC37" s="69"/>
-      <c r="BD37" s="69"/>
-      <c r="BE37" s="69"/>
-      <c r="BF37" s="69"/>
-      <c r="BG37" s="69"/>
-      <c r="BH37" s="69"/>
-      <c r="BI37" s="69"/>
-      <c r="BJ37" s="69"/>
-      <c r="BK37" s="69"/>
-      <c r="BL37" s="69"/>
-      <c r="BM37" s="69"/>
-      <c r="BN37" s="69"/>
-      <c r="BO37" s="69"/>
-      <c r="BP37" s="69"/>
-      <c r="BQ37" s="69"/>
-      <c r="BR37" s="69"/>
-      <c r="BS37" s="69"/>
-      <c r="BT37" s="69"/>
-      <c r="BU37" s="69"/>
-      <c r="BV37" s="69"/>
-      <c r="BW37" s="69"/>
-      <c r="BX37" s="69"/>
-      <c r="BY37" s="69"/>
-      <c r="BZ37" s="69"/>
-      <c r="CA37" s="69"/>
-      <c r="CB37" s="69"/>
-      <c r="CC37" s="69"/>
-      <c r="CD37" s="69"/>
-      <c r="CE37" s="69"/>
-      <c r="CF37" s="69"/>
-      <c r="CG37" s="69"/>
-      <c r="CH37" s="69"/>
-      <c r="CI37" s="69"/>
-      <c r="CJ37" s="69"/>
-      <c r="CK37" s="69"/>
-      <c r="CL37" s="69"/>
-      <c r="CM37" s="69"/>
-      <c r="CN37" s="69"/>
-      <c r="CO37" s="69"/>
-      <c r="CP37" s="69"/>
-      <c r="CQ37" s="69"/>
-      <c r="CR37" s="69"/>
-      <c r="CS37" s="69"/>
-      <c r="CT37" s="69"/>
-      <c r="CU37" s="69"/>
-      <c r="CV37" s="69"/>
-      <c r="CW37" s="69"/>
-      <c r="CX37" s="69"/>
-      <c r="CY37" s="69"/>
-      <c r="CZ37" s="69"/>
-      <c r="DA37" s="114"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="54"/>
+      <c r="AE37" s="54"/>
+      <c r="AF37" s="54"/>
+      <c r="AG37" s="54"/>
+      <c r="AH37" s="54"/>
+      <c r="AI37" s="54"/>
+      <c r="AJ37" s="54"/>
+      <c r="AK37" s="54"/>
+      <c r="AL37" s="54"/>
+      <c r="AM37" s="54"/>
+      <c r="AN37" s="54"/>
+      <c r="AO37" s="54"/>
+      <c r="AP37" s="54"/>
+      <c r="AQ37" s="54"/>
+      <c r="AR37" s="54"/>
+      <c r="AS37" s="54"/>
+      <c r="AT37" s="54"/>
+      <c r="AU37" s="54"/>
+      <c r="AV37" s="54"/>
+      <c r="AW37" s="54"/>
+      <c r="AX37" s="54"/>
+      <c r="AY37" s="54"/>
+      <c r="AZ37" s="54"/>
+      <c r="BA37" s="54"/>
+      <c r="BB37" s="54"/>
+      <c r="BC37" s="54"/>
+      <c r="BD37" s="54"/>
+      <c r="BE37" s="54"/>
+      <c r="BF37" s="54"/>
+      <c r="BG37" s="54"/>
+      <c r="BH37" s="54"/>
+      <c r="BI37" s="54"/>
+      <c r="BJ37" s="54"/>
+      <c r="BK37" s="54"/>
+      <c r="BL37" s="54"/>
+      <c r="BM37" s="54"/>
+      <c r="BN37" s="54"/>
+      <c r="BO37" s="54"/>
+      <c r="BP37" s="54"/>
+      <c r="BQ37" s="54"/>
+      <c r="BR37" s="54"/>
+      <c r="BS37" s="54"/>
+      <c r="BT37" s="54"/>
+      <c r="BU37" s="54"/>
+      <c r="BV37" s="54"/>
+      <c r="BW37" s="54"/>
+      <c r="BX37" s="54"/>
+      <c r="BY37" s="54"/>
+      <c r="BZ37" s="54"/>
+      <c r="CA37" s="54"/>
+      <c r="CB37" s="54"/>
+      <c r="CC37" s="54"/>
+      <c r="CD37" s="54"/>
+      <c r="CE37" s="54"/>
+      <c r="CF37" s="54"/>
+      <c r="CG37" s="54"/>
+      <c r="CH37" s="54"/>
+      <c r="CI37" s="54"/>
+      <c r="CJ37" s="54"/>
+      <c r="CK37" s="54"/>
+      <c r="CL37" s="54"/>
+      <c r="CM37" s="54"/>
+      <c r="CN37" s="54"/>
+      <c r="CO37" s="54"/>
+      <c r="CP37" s="54"/>
+      <c r="CQ37" s="54"/>
+      <c r="CR37" s="54"/>
+      <c r="CS37" s="54"/>
+      <c r="CT37" s="54"/>
+      <c r="CU37" s="54"/>
+      <c r="CV37" s="54"/>
+      <c r="CW37" s="54"/>
+      <c r="CX37" s="54"/>
+      <c r="CY37" s="54"/>
+      <c r="CZ37" s="54"/>
+      <c r="DA37" s="84"/>
     </row>
-    <row r="38" spans="1:105" ht="8.1" customHeight="1">
-      <c r="A38" s="95"/>
+    <row r="38" spans="1:105" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="87"/>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -6300,8 +6304,8 @@
       <c r="CZ38" s="10"/>
       <c r="DA38" s="12"/>
     </row>
-    <row r="39" spans="1:105" ht="12" customHeight="1">
-      <c r="A39" s="95"/>
+    <row r="39" spans="1:105" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="87"/>
       <c r="B39" s="9"/>
       <c r="C39" s="18" t="s">
         <v>48</v>
@@ -6409,8 +6413,8 @@
       <c r="CZ39" s="10"/>
       <c r="DA39" s="12"/>
     </row>
-    <row r="40" spans="1:105" ht="14.25" customHeight="1">
-      <c r="A40" s="95"/>
+    <row r="40" spans="1:105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="87"/>
       <c r="B40" s="9"/>
       <c r="C40" s="18" t="s">
         <v>25</v>
@@ -6455,22 +6459,22 @@
       <c r="AO40" s="10"/>
       <c r="AP40" s="10"/>
       <c r="AQ40" s="10"/>
-      <c r="AR40" s="96">
+      <c r="AR40" s="88">
         <v>0</v>
       </c>
-      <c r="AS40" s="97"/>
-      <c r="AT40" s="97"/>
-      <c r="AU40" s="97"/>
-      <c r="AV40" s="97"/>
-      <c r="AW40" s="97"/>
-      <c r="AX40" s="97"/>
-      <c r="AY40" s="97"/>
-      <c r="AZ40" s="97"/>
-      <c r="BA40" s="97"/>
-      <c r="BB40" s="97"/>
-      <c r="BC40" s="97"/>
-      <c r="BD40" s="97"/>
-      <c r="BE40" s="97"/>
+      <c r="AS40" s="89"/>
+      <c r="AT40" s="89"/>
+      <c r="AU40" s="89"/>
+      <c r="AV40" s="89"/>
+      <c r="AW40" s="89"/>
+      <c r="AX40" s="89"/>
+      <c r="AY40" s="89"/>
+      <c r="AZ40" s="89"/>
+      <c r="BA40" s="89"/>
+      <c r="BB40" s="89"/>
+      <c r="BC40" s="89"/>
+      <c r="BD40" s="89"/>
+      <c r="BE40" s="89"/>
       <c r="BF40" s="10"/>
       <c r="BG40" s="10"/>
       <c r="BH40" s="10"/>
@@ -6520,8 +6524,8 @@
       <c r="CZ40" s="10"/>
       <c r="DA40" s="12"/>
     </row>
-    <row r="41" spans="1:105" ht="15" customHeight="1">
-      <c r="A41" s="95"/>
+    <row r="41" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="87"/>
       <c r="B41" s="9"/>
       <c r="C41" s="18" t="s">
         <v>26</v>
@@ -6629,8 +6633,8 @@
       <c r="CZ41" s="10"/>
       <c r="DA41" s="12"/>
     </row>
-    <row r="42" spans="1:105" ht="24" customHeight="1">
-      <c r="A42" s="95"/>
+    <row r="42" spans="1:105" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="87"/>
       <c r="B42" s="9"/>
       <c r="C42" s="18" t="s">
         <v>27</v>
@@ -6644,128 +6648,128 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="59"/>
-      <c r="W42" s="59"/>
-      <c r="X42" s="59"/>
-      <c r="Y42" s="59"/>
-      <c r="Z42" s="59"/>
-      <c r="AA42" s="59"/>
-      <c r="AB42" s="59"/>
-      <c r="AC42" s="59"/>
-      <c r="AD42" s="59"/>
-      <c r="AE42" s="59"/>
-      <c r="AF42" s="59"/>
-      <c r="AG42" s="59"/>
-      <c r="AH42" s="59"/>
-      <c r="AI42" s="59"/>
-      <c r="AJ42" s="59"/>
-      <c r="AK42" s="59"/>
-      <c r="AL42" s="59"/>
-      <c r="AM42" s="59"/>
-      <c r="AN42" s="59"/>
-      <c r="AO42" s="59"/>
-      <c r="AP42" s="59"/>
-      <c r="AQ42" s="59"/>
-      <c r="AR42" s="59"/>
-      <c r="AS42" s="59"/>
-      <c r="AT42" s="59"/>
-      <c r="AU42" s="59"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="64"/>
+      <c r="Y42" s="64"/>
+      <c r="Z42" s="64"/>
+      <c r="AA42" s="64"/>
+      <c r="AB42" s="64"/>
+      <c r="AC42" s="64"/>
+      <c r="AD42" s="64"/>
+      <c r="AE42" s="64"/>
+      <c r="AF42" s="64"/>
+      <c r="AG42" s="64"/>
+      <c r="AH42" s="64"/>
+      <c r="AI42" s="64"/>
+      <c r="AJ42" s="64"/>
+      <c r="AK42" s="64"/>
+      <c r="AL42" s="64"/>
+      <c r="AM42" s="64"/>
+      <c r="AN42" s="64"/>
+      <c r="AO42" s="64"/>
+      <c r="AP42" s="64"/>
+      <c r="AQ42" s="64"/>
+      <c r="AR42" s="64"/>
+      <c r="AS42" s="64"/>
+      <c r="AT42" s="64"/>
+      <c r="AU42" s="64"/>
       <c r="AV42" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AW42" s="70" t="s">
+      <c r="AW42" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="AX42" s="59"/>
-      <c r="AY42" s="59"/>
-      <c r="AZ42" s="71"/>
-      <c r="BA42" s="71"/>
-      <c r="BB42" s="71"/>
-      <c r="BC42" s="71"/>
-      <c r="BD42" s="71"/>
-      <c r="BE42" s="71"/>
-      <c r="BF42" s="71"/>
-      <c r="BG42" s="71"/>
-      <c r="BH42" s="71"/>
-      <c r="BI42" s="71"/>
-      <c r="BJ42" s="71"/>
-      <c r="BK42" s="71"/>
+      <c r="AX42" s="64"/>
+      <c r="AY42" s="64"/>
+      <c r="AZ42" s="81"/>
+      <c r="BA42" s="81"/>
+      <c r="BB42" s="81"/>
+      <c r="BC42" s="81"/>
+      <c r="BD42" s="81"/>
+      <c r="BE42" s="81"/>
+      <c r="BF42" s="81"/>
+      <c r="BG42" s="81"/>
+      <c r="BH42" s="81"/>
+      <c r="BI42" s="81"/>
+      <c r="BJ42" s="81"/>
+      <c r="BK42" s="81"/>
       <c r="BL42" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="BM42" s="98" t="s">
+      <c r="BM42" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="BN42" s="71"/>
-      <c r="BO42" s="81"/>
-      <c r="BP42" s="81"/>
-      <c r="BQ42" s="81"/>
-      <c r="BR42" s="81"/>
+      <c r="BN42" s="81"/>
+      <c r="BO42" s="60"/>
+      <c r="BP42" s="60"/>
+      <c r="BQ42" s="60"/>
+      <c r="BR42" s="60"/>
       <c r="BS42" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="BT42" s="72" t="s">
+      <c r="BT42" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="BU42" s="73"/>
-      <c r="BV42" s="73"/>
-      <c r="BW42" s="73"/>
-      <c r="BX42" s="118">
+      <c r="BU42" s="66"/>
+      <c r="BV42" s="66"/>
+      <c r="BW42" s="66"/>
+      <c r="BX42" s="59">
         <v>0</v>
       </c>
-      <c r="BY42" s="81"/>
-      <c r="BZ42" s="81"/>
+      <c r="BY42" s="60"/>
+      <c r="BZ42" s="60"/>
       <c r="CA42" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="CB42" s="72" t="s">
+      <c r="CB42" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="CC42" s="73"/>
-      <c r="CD42" s="73"/>
-      <c r="CE42" s="118">
+      <c r="CC42" s="66"/>
+      <c r="CD42" s="66"/>
+      <c r="CE42" s="59">
         <v>0</v>
       </c>
-      <c r="CF42" s="81"/>
-      <c r="CG42" s="81"/>
+      <c r="CF42" s="60"/>
+      <c r="CG42" s="60"/>
       <c r="CH42" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="CI42" s="81"/>
-      <c r="CJ42" s="81"/>
-      <c r="CK42" s="81"/>
-      <c r="CL42" s="81"/>
-      <c r="CM42" s="81"/>
-      <c r="CN42" s="81"/>
+      <c r="CI42" s="60"/>
+      <c r="CJ42" s="60"/>
+      <c r="CK42" s="60"/>
+      <c r="CL42" s="60"/>
+      <c r="CM42" s="60"/>
+      <c r="CN42" s="60"/>
       <c r="CO42" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="CP42" s="70" t="s">
+      <c r="CP42" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="CQ42" s="59"/>
-      <c r="CR42" s="71"/>
-      <c r="CS42" s="71"/>
-      <c r="CT42" s="71"/>
-      <c r="CU42" s="71"/>
-      <c r="CV42" s="71"/>
-      <c r="CW42" s="71"/>
-      <c r="CX42" s="71"/>
-      <c r="CY42" s="71"/>
-      <c r="CZ42" s="71"/>
-      <c r="DA42" s="99"/>
+      <c r="CQ42" s="64"/>
+      <c r="CR42" s="81"/>
+      <c r="CS42" s="81"/>
+      <c r="CT42" s="81"/>
+      <c r="CU42" s="81"/>
+      <c r="CV42" s="81"/>
+      <c r="CW42" s="81"/>
+      <c r="CX42" s="81"/>
+      <c r="CY42" s="81"/>
+      <c r="CZ42" s="81"/>
+      <c r="DA42" s="85"/>
     </row>
-    <row r="43" spans="1:105" ht="12" customHeight="1">
-      <c r="A43" s="95"/>
+    <row r="43" spans="1:105" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="87"/>
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -6839,50 +6843,50 @@
       <c r="BT43" s="10"/>
       <c r="BU43" s="10"/>
       <c r="BV43" s="10"/>
-      <c r="BW43" s="118">
+      <c r="BW43" s="59">
         <v>0</v>
       </c>
-      <c r="BX43" s="81"/>
-      <c r="BY43" s="81"/>
-      <c r="BZ43" s="81"/>
-      <c r="CA43" s="81"/>
-      <c r="CB43" s="81"/>
-      <c r="CC43" s="81"/>
-      <c r="CD43" s="81"/>
-      <c r="CE43" s="81"/>
-      <c r="CF43" s="81"/>
-      <c r="CG43" s="81"/>
-      <c r="CH43" s="81"/>
-      <c r="CI43" s="81"/>
-      <c r="CJ43" s="81"/>
-      <c r="CK43" s="79" t="s">
+      <c r="BX43" s="60"/>
+      <c r="BY43" s="60"/>
+      <c r="BZ43" s="60"/>
+      <c r="CA43" s="60"/>
+      <c r="CB43" s="60"/>
+      <c r="CC43" s="60"/>
+      <c r="CD43" s="60"/>
+      <c r="CE43" s="60"/>
+      <c r="CF43" s="60"/>
+      <c r="CG43" s="60"/>
+      <c r="CH43" s="60"/>
+      <c r="CI43" s="60"/>
+      <c r="CJ43" s="60"/>
+      <c r="CK43" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="CL43" s="80"/>
-      <c r="CM43" s="80"/>
+      <c r="CL43" s="62"/>
+      <c r="CM43" s="62"/>
       <c r="CN43" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="CO43" s="119">
+      <c r="CO43" s="63">
         <v>0</v>
       </c>
-      <c r="CP43" s="59"/>
-      <c r="CQ43" s="59"/>
-      <c r="CR43" s="59"/>
-      <c r="CS43" s="59"/>
-      <c r="CT43" s="59"/>
-      <c r="CU43" s="59"/>
-      <c r="CV43" s="59"/>
-      <c r="CW43" s="59"/>
-      <c r="CX43" s="72" t="s">
+      <c r="CP43" s="64"/>
+      <c r="CQ43" s="64"/>
+      <c r="CR43" s="64"/>
+      <c r="CS43" s="64"/>
+      <c r="CT43" s="64"/>
+      <c r="CU43" s="64"/>
+      <c r="CV43" s="64"/>
+      <c r="CW43" s="64"/>
+      <c r="CX43" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="CY43" s="73"/>
-      <c r="CZ43" s="73"/>
+      <c r="CY43" s="66"/>
+      <c r="CZ43" s="66"/>
       <c r="DA43" s="12"/>
     </row>
-    <row r="44" spans="1:105" ht="8.1" customHeight="1">
-      <c r="A44" s="95"/>
+    <row r="44" spans="1:105" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="87"/>
       <c r="B44" s="9"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -6988,240 +6992,240 @@
       <c r="CZ44" s="11"/>
       <c r="DA44" s="33"/>
     </row>
-    <row r="45" spans="1:105" ht="53.25" customHeight="1">
-      <c r="A45" s="95"/>
+    <row r="45" spans="1:105" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="87"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="111" t="s">
+      <c r="C45" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="100" t="s">
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
-      <c r="M45" s="101"/>
-      <c r="N45" s="101"/>
-      <c r="O45" s="101"/>
-      <c r="P45" s="101"/>
-      <c r="Q45" s="101"/>
-      <c r="R45" s="101"/>
-      <c r="S45" s="101"/>
-      <c r="T45" s="101"/>
-      <c r="U45" s="101"/>
-      <c r="V45" s="101"/>
-      <c r="W45" s="101"/>
-      <c r="X45" s="101"/>
-      <c r="Y45" s="101"/>
-      <c r="Z45" s="101"/>
-      <c r="AA45" s="101"/>
-      <c r="AB45" s="101"/>
-      <c r="AC45" s="102"/>
-      <c r="AD45" s="100" t="s">
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="68"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="68"/>
+      <c r="Z45" s="68"/>
+      <c r="AA45" s="68"/>
+      <c r="AB45" s="68"/>
+      <c r="AC45" s="69"/>
+      <c r="AD45" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="AE45" s="101"/>
-      <c r="AF45" s="101"/>
-      <c r="AG45" s="101"/>
-      <c r="AH45" s="101"/>
-      <c r="AI45" s="101"/>
-      <c r="AJ45" s="101"/>
-      <c r="AK45" s="101"/>
-      <c r="AL45" s="101"/>
-      <c r="AM45" s="101"/>
-      <c r="AN45" s="101"/>
-      <c r="AO45" s="101"/>
-      <c r="AP45" s="101"/>
-      <c r="AQ45" s="101"/>
-      <c r="AR45" s="101"/>
-      <c r="AS45" s="101"/>
-      <c r="AT45" s="101"/>
-      <c r="AU45" s="101"/>
-      <c r="AV45" s="101"/>
-      <c r="AW45" s="101"/>
-      <c r="AX45" s="102"/>
-      <c r="AY45" s="100" t="s">
+      <c r="AE45" s="68"/>
+      <c r="AF45" s="68"/>
+      <c r="AG45" s="68"/>
+      <c r="AH45" s="68"/>
+      <c r="AI45" s="68"/>
+      <c r="AJ45" s="68"/>
+      <c r="AK45" s="68"/>
+      <c r="AL45" s="68"/>
+      <c r="AM45" s="68"/>
+      <c r="AN45" s="68"/>
+      <c r="AO45" s="68"/>
+      <c r="AP45" s="68"/>
+      <c r="AQ45" s="68"/>
+      <c r="AR45" s="68"/>
+      <c r="AS45" s="68"/>
+      <c r="AT45" s="68"/>
+      <c r="AU45" s="68"/>
+      <c r="AV45" s="68"/>
+      <c r="AW45" s="68"/>
+      <c r="AX45" s="69"/>
+      <c r="AY45" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="AZ45" s="101"/>
-      <c r="BA45" s="101"/>
-      <c r="BB45" s="101"/>
-      <c r="BC45" s="102"/>
-      <c r="BD45" s="100" t="s">
+      <c r="AZ45" s="68"/>
+      <c r="BA45" s="68"/>
+      <c r="BB45" s="68"/>
+      <c r="BC45" s="69"/>
+      <c r="BD45" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="BE45" s="101"/>
-      <c r="BF45" s="101"/>
-      <c r="BG45" s="101"/>
-      <c r="BH45" s="101"/>
-      <c r="BI45" s="101"/>
-      <c r="BJ45" s="101"/>
-      <c r="BK45" s="101"/>
-      <c r="BL45" s="101"/>
-      <c r="BM45" s="102"/>
-      <c r="BN45" s="100" t="s">
+      <c r="BE45" s="68"/>
+      <c r="BF45" s="68"/>
+      <c r="BG45" s="68"/>
+      <c r="BH45" s="68"/>
+      <c r="BI45" s="68"/>
+      <c r="BJ45" s="68"/>
+      <c r="BK45" s="68"/>
+      <c r="BL45" s="68"/>
+      <c r="BM45" s="69"/>
+      <c r="BN45" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="BO45" s="101"/>
-      <c r="BP45" s="101"/>
-      <c r="BQ45" s="101"/>
-      <c r="BR45" s="101"/>
-      <c r="BS45" s="101"/>
-      <c r="BT45" s="101"/>
-      <c r="BU45" s="101"/>
-      <c r="BV45" s="101"/>
-      <c r="BW45" s="102"/>
-      <c r="BX45" s="100" t="s">
+      <c r="BO45" s="68"/>
+      <c r="BP45" s="68"/>
+      <c r="BQ45" s="68"/>
+      <c r="BR45" s="68"/>
+      <c r="BS45" s="68"/>
+      <c r="BT45" s="68"/>
+      <c r="BU45" s="68"/>
+      <c r="BV45" s="68"/>
+      <c r="BW45" s="69"/>
+      <c r="BX45" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="BY45" s="101"/>
-      <c r="BZ45" s="101"/>
-      <c r="CA45" s="101"/>
-      <c r="CB45" s="101"/>
-      <c r="CC45" s="101"/>
-      <c r="CD45" s="101"/>
-      <c r="CE45" s="101"/>
-      <c r="CF45" s="101"/>
-      <c r="CG45" s="101"/>
-      <c r="CH45" s="101"/>
-      <c r="CI45" s="101"/>
-      <c r="CJ45" s="101"/>
-      <c r="CK45" s="101"/>
-      <c r="CL45" s="101"/>
-      <c r="CM45" s="101"/>
-      <c r="CN45" s="101"/>
-      <c r="CO45" s="101"/>
-      <c r="CP45" s="101"/>
-      <c r="CQ45" s="101"/>
-      <c r="CR45" s="101"/>
-      <c r="CS45" s="101"/>
-      <c r="CT45" s="101"/>
-      <c r="CU45" s="101"/>
-      <c r="CV45" s="101"/>
-      <c r="CW45" s="101"/>
-      <c r="CX45" s="101"/>
-      <c r="CY45" s="101"/>
-      <c r="CZ45" s="101"/>
-      <c r="DA45" s="102"/>
+      <c r="BY45" s="68"/>
+      <c r="BZ45" s="68"/>
+      <c r="CA45" s="68"/>
+      <c r="CB45" s="68"/>
+      <c r="CC45" s="68"/>
+      <c r="CD45" s="68"/>
+      <c r="CE45" s="68"/>
+      <c r="CF45" s="68"/>
+      <c r="CG45" s="68"/>
+      <c r="CH45" s="68"/>
+      <c r="CI45" s="68"/>
+      <c r="CJ45" s="68"/>
+      <c r="CK45" s="68"/>
+      <c r="CL45" s="68"/>
+      <c r="CM45" s="68"/>
+      <c r="CN45" s="68"/>
+      <c r="CO45" s="68"/>
+      <c r="CP45" s="68"/>
+      <c r="CQ45" s="68"/>
+      <c r="CR45" s="68"/>
+      <c r="CS45" s="68"/>
+      <c r="CT45" s="68"/>
+      <c r="CU45" s="68"/>
+      <c r="CV45" s="68"/>
+      <c r="CW45" s="68"/>
+      <c r="CX45" s="68"/>
+      <c r="CY45" s="68"/>
+      <c r="CZ45" s="68"/>
+      <c r="DA45" s="69"/>
     </row>
-    <row r="46" spans="1:105" ht="27" customHeight="1">
-      <c r="A46" s="95"/>
+    <row r="46" spans="1:105" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="87"/>
       <c r="B46" s="16"/>
-      <c r="C46" s="103">
+      <c r="C46" s="70">
         <v>1</v>
       </c>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="101"/>
-      <c r="M46" s="101"/>
-      <c r="N46" s="101"/>
-      <c r="O46" s="101"/>
-      <c r="P46" s="101"/>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="101"/>
-      <c r="S46" s="101"/>
-      <c r="T46" s="101"/>
-      <c r="U46" s="101"/>
-      <c r="V46" s="101"/>
-      <c r="W46" s="101"/>
-      <c r="X46" s="101"/>
-      <c r="Y46" s="101"/>
-      <c r="Z46" s="101"/>
-      <c r="AA46" s="101"/>
-      <c r="AB46" s="101"/>
-      <c r="AC46" s="102"/>
-      <c r="AD46" s="105"/>
-      <c r="AE46" s="101"/>
-      <c r="AF46" s="101"/>
-      <c r="AG46" s="101"/>
-      <c r="AH46" s="101"/>
-      <c r="AI46" s="101"/>
-      <c r="AJ46" s="101"/>
-      <c r="AK46" s="101"/>
-      <c r="AL46" s="101"/>
-      <c r="AM46" s="101"/>
-      <c r="AN46" s="101"/>
-      <c r="AO46" s="101"/>
-      <c r="AP46" s="101"/>
-      <c r="AQ46" s="101"/>
-      <c r="AR46" s="101"/>
-      <c r="AS46" s="101"/>
-      <c r="AT46" s="101"/>
-      <c r="AU46" s="101"/>
-      <c r="AV46" s="101"/>
-      <c r="AW46" s="101"/>
-      <c r="AX46" s="102"/>
-      <c r="AY46" s="106"/>
-      <c r="AZ46" s="107"/>
-      <c r="BA46" s="107"/>
-      <c r="BB46" s="107"/>
-      <c r="BC46" s="108"/>
-      <c r="BD46" s="109"/>
-      <c r="BE46" s="110"/>
-      <c r="BF46" s="110"/>
-      <c r="BG46" s="110"/>
-      <c r="BH46" s="110"/>
-      <c r="BI46" s="110"/>
-      <c r="BJ46" s="110"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="68"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="68"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="68"/>
+      <c r="Z46" s="68"/>
+      <c r="AA46" s="68"/>
+      <c r="AB46" s="68"/>
+      <c r="AC46" s="69"/>
+      <c r="AD46" s="72"/>
+      <c r="AE46" s="68"/>
+      <c r="AF46" s="68"/>
+      <c r="AG46" s="68"/>
+      <c r="AH46" s="68"/>
+      <c r="AI46" s="68"/>
+      <c r="AJ46" s="68"/>
+      <c r="AK46" s="68"/>
+      <c r="AL46" s="68"/>
+      <c r="AM46" s="68"/>
+      <c r="AN46" s="68"/>
+      <c r="AO46" s="68"/>
+      <c r="AP46" s="68"/>
+      <c r="AQ46" s="68"/>
+      <c r="AR46" s="68"/>
+      <c r="AS46" s="68"/>
+      <c r="AT46" s="68"/>
+      <c r="AU46" s="68"/>
+      <c r="AV46" s="68"/>
+      <c r="AW46" s="68"/>
+      <c r="AX46" s="69"/>
+      <c r="AY46" s="73"/>
+      <c r="AZ46" s="74"/>
+      <c r="BA46" s="74"/>
+      <c r="BB46" s="74"/>
+      <c r="BC46" s="75"/>
+      <c r="BD46" s="76"/>
+      <c r="BE46" s="77"/>
+      <c r="BF46" s="77"/>
+      <c r="BG46" s="77"/>
+      <c r="BH46" s="77"/>
+      <c r="BI46" s="77"/>
+      <c r="BJ46" s="77"/>
       <c r="BK46" s="37" t="s">
         <v>2</v>
       </c>
       <c r="BL46" s="38"/>
       <c r="BM46" s="39"/>
-      <c r="BN46" s="106"/>
-      <c r="BO46" s="107"/>
-      <c r="BP46" s="107"/>
-      <c r="BQ46" s="107"/>
-      <c r="BR46" s="107"/>
-      <c r="BS46" s="107"/>
-      <c r="BT46" s="107"/>
-      <c r="BU46" s="107"/>
-      <c r="BV46" s="107"/>
-      <c r="BW46" s="108"/>
-      <c r="BX46" s="106"/>
-      <c r="BY46" s="107"/>
-      <c r="BZ46" s="107"/>
-      <c r="CA46" s="107"/>
-      <c r="CB46" s="107"/>
-      <c r="CC46" s="107"/>
-      <c r="CD46" s="107"/>
-      <c r="CE46" s="107"/>
-      <c r="CF46" s="107"/>
-      <c r="CG46" s="107"/>
-      <c r="CH46" s="107"/>
-      <c r="CI46" s="107"/>
-      <c r="CJ46" s="107"/>
-      <c r="CK46" s="107"/>
-      <c r="CL46" s="107"/>
-      <c r="CM46" s="107"/>
-      <c r="CN46" s="107"/>
-      <c r="CO46" s="107"/>
-      <c r="CP46" s="107"/>
-      <c r="CQ46" s="107"/>
-      <c r="CR46" s="107"/>
-      <c r="CS46" s="107"/>
-      <c r="CT46" s="107"/>
-      <c r="CU46" s="107"/>
-      <c r="CV46" s="107"/>
-      <c r="CW46" s="107"/>
-      <c r="CX46" s="107"/>
-      <c r="CY46" s="107"/>
-      <c r="CZ46" s="107"/>
-      <c r="DA46" s="108"/>
+      <c r="BN46" s="73"/>
+      <c r="BO46" s="74"/>
+      <c r="BP46" s="74"/>
+      <c r="BQ46" s="74"/>
+      <c r="BR46" s="74"/>
+      <c r="BS46" s="74"/>
+      <c r="BT46" s="74"/>
+      <c r="BU46" s="74"/>
+      <c r="BV46" s="74"/>
+      <c r="BW46" s="75"/>
+      <c r="BX46" s="73"/>
+      <c r="BY46" s="74"/>
+      <c r="BZ46" s="74"/>
+      <c r="CA46" s="74"/>
+      <c r="CB46" s="74"/>
+      <c r="CC46" s="74"/>
+      <c r="CD46" s="74"/>
+      <c r="CE46" s="74"/>
+      <c r="CF46" s="74"/>
+      <c r="CG46" s="74"/>
+      <c r="CH46" s="74"/>
+      <c r="CI46" s="74"/>
+      <c r="CJ46" s="74"/>
+      <c r="CK46" s="74"/>
+      <c r="CL46" s="74"/>
+      <c r="CM46" s="74"/>
+      <c r="CN46" s="74"/>
+      <c r="CO46" s="74"/>
+      <c r="CP46" s="74"/>
+      <c r="CQ46" s="74"/>
+      <c r="CR46" s="74"/>
+      <c r="CS46" s="74"/>
+      <c r="CT46" s="74"/>
+      <c r="CU46" s="74"/>
+      <c r="CV46" s="74"/>
+      <c r="CW46" s="74"/>
+      <c r="CX46" s="74"/>
+      <c r="CY46" s="74"/>
+      <c r="CZ46" s="74"/>
+      <c r="DA46" s="75"/>
     </row>
-    <row r="47" spans="1:105" ht="8.1" customHeight="1">
-      <c r="A47" s="95"/>
+    <row r="47" spans="1:105" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="87"/>
       <c r="B47" s="9"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -7327,117 +7331,117 @@
       <c r="CZ47" s="7"/>
       <c r="DA47" s="8"/>
     </row>
-    <row r="48" spans="1:105" ht="15" customHeight="1">
-      <c r="A48" s="95"/>
+    <row r="48" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="87"/>
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
-      <c r="E48" s="120" t="s">
+      <c r="E48" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="121"/>
-      <c r="L48" s="121"/>
-      <c r="M48" s="121"/>
-      <c r="N48" s="121"/>
-      <c r="O48" s="121"/>
-      <c r="P48" s="121"/>
-      <c r="Q48" s="121"/>
-      <c r="R48" s="121"/>
-      <c r="S48" s="121"/>
-      <c r="T48" s="121"/>
-      <c r="U48" s="121"/>
-      <c r="V48" s="121"/>
-      <c r="W48" s="121"/>
-      <c r="X48" s="121"/>
-      <c r="Y48" s="121"/>
-      <c r="Z48" s="121"/>
-      <c r="AA48" s="121"/>
-      <c r="AB48" s="121"/>
-      <c r="AC48" s="121"/>
-      <c r="AD48" s="121"/>
-      <c r="AE48" s="121"/>
-      <c r="AF48" s="121"/>
-      <c r="AG48" s="121"/>
-      <c r="AH48" s="121"/>
-      <c r="AI48" s="121"/>
-      <c r="AJ48" s="121"/>
-      <c r="AK48" s="121"/>
-      <c r="AL48" s="121"/>
-      <c r="AM48" s="121"/>
-      <c r="AN48" s="121"/>
-      <c r="AO48" s="121"/>
-      <c r="AP48" s="121"/>
-      <c r="AQ48" s="121"/>
-      <c r="AR48" s="121"/>
-      <c r="AS48" s="121"/>
-      <c r="AT48" s="121"/>
-      <c r="AU48" s="121"/>
-      <c r="AV48" s="121"/>
-      <c r="AW48" s="121"/>
-      <c r="AX48" s="121"/>
-      <c r="AY48" s="121"/>
-      <c r="AZ48" s="121"/>
-      <c r="BA48" s="121"/>
-      <c r="BB48" s="121"/>
-      <c r="BC48" s="121"/>
-      <c r="BD48" s="121"/>
-      <c r="BE48" s="121"/>
-      <c r="BF48" s="121"/>
-      <c r="BG48" s="121"/>
-      <c r="BH48" s="121"/>
-      <c r="BI48" s="121"/>
-      <c r="BJ48" s="121"/>
-      <c r="BK48" s="121"/>
-      <c r="BL48" s="121"/>
-      <c r="BM48" s="121"/>
-      <c r="BN48" s="121"/>
-      <c r="BO48" s="121"/>
-      <c r="BP48" s="121"/>
-      <c r="BQ48" s="121"/>
-      <c r="BR48" s="121"/>
-      <c r="BS48" s="121"/>
-      <c r="BT48" s="121"/>
-      <c r="BU48" s="121"/>
-      <c r="BV48" s="121"/>
-      <c r="BW48" s="121"/>
-      <c r="BX48" s="121"/>
-      <c r="BY48" s="121"/>
-      <c r="BZ48" s="121"/>
-      <c r="CA48" s="121"/>
-      <c r="CB48" s="121"/>
-      <c r="CC48" s="121"/>
-      <c r="CD48" s="121"/>
-      <c r="CE48" s="121"/>
-      <c r="CF48" s="121"/>
-      <c r="CG48" s="121"/>
-      <c r="CH48" s="121"/>
-      <c r="CI48" s="121"/>
-      <c r="CJ48" s="121"/>
-      <c r="CK48" s="121"/>
-      <c r="CL48" s="121"/>
-      <c r="CM48" s="121"/>
-      <c r="CN48" s="121"/>
-      <c r="CO48" s="121"/>
-      <c r="CP48" s="121"/>
-      <c r="CQ48" s="121"/>
-      <c r="CR48" s="121"/>
-      <c r="CS48" s="121"/>
-      <c r="CT48" s="121"/>
-      <c r="CU48" s="121"/>
-      <c r="CV48" s="121"/>
-      <c r="CW48" s="121"/>
-      <c r="CX48" s="121"/>
-      <c r="CY48" s="121"/>
-      <c r="CZ48" s="121"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="51"/>
+      <c r="U48" s="51"/>
+      <c r="V48" s="51"/>
+      <c r="W48" s="51"/>
+      <c r="X48" s="51"/>
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AE48" s="51"/>
+      <c r="AF48" s="51"/>
+      <c r="AG48" s="51"/>
+      <c r="AH48" s="51"/>
+      <c r="AI48" s="51"/>
+      <c r="AJ48" s="51"/>
+      <c r="AK48" s="51"/>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="51"/>
+      <c r="AN48" s="51"/>
+      <c r="AO48" s="51"/>
+      <c r="AP48" s="51"/>
+      <c r="AQ48" s="51"/>
+      <c r="AR48" s="51"/>
+      <c r="AS48" s="51"/>
+      <c r="AT48" s="51"/>
+      <c r="AU48" s="51"/>
+      <c r="AV48" s="51"/>
+      <c r="AW48" s="51"/>
+      <c r="AX48" s="51"/>
+      <c r="AY48" s="51"/>
+      <c r="AZ48" s="51"/>
+      <c r="BA48" s="51"/>
+      <c r="BB48" s="51"/>
+      <c r="BC48" s="51"/>
+      <c r="BD48" s="51"/>
+      <c r="BE48" s="51"/>
+      <c r="BF48" s="51"/>
+      <c r="BG48" s="51"/>
+      <c r="BH48" s="51"/>
+      <c r="BI48" s="51"/>
+      <c r="BJ48" s="51"/>
+      <c r="BK48" s="51"/>
+      <c r="BL48" s="51"/>
+      <c r="BM48" s="51"/>
+      <c r="BN48" s="51"/>
+      <c r="BO48" s="51"/>
+      <c r="BP48" s="51"/>
+      <c r="BQ48" s="51"/>
+      <c r="BR48" s="51"/>
+      <c r="BS48" s="51"/>
+      <c r="BT48" s="51"/>
+      <c r="BU48" s="51"/>
+      <c r="BV48" s="51"/>
+      <c r="BW48" s="51"/>
+      <c r="BX48" s="51"/>
+      <c r="BY48" s="51"/>
+      <c r="BZ48" s="51"/>
+      <c r="CA48" s="51"/>
+      <c r="CB48" s="51"/>
+      <c r="CC48" s="51"/>
+      <c r="CD48" s="51"/>
+      <c r="CE48" s="51"/>
+      <c r="CF48" s="51"/>
+      <c r="CG48" s="51"/>
+      <c r="CH48" s="51"/>
+      <c r="CI48" s="51"/>
+      <c r="CJ48" s="51"/>
+      <c r="CK48" s="51"/>
+      <c r="CL48" s="51"/>
+      <c r="CM48" s="51"/>
+      <c r="CN48" s="51"/>
+      <c r="CO48" s="51"/>
+      <c r="CP48" s="51"/>
+      <c r="CQ48" s="51"/>
+      <c r="CR48" s="51"/>
+      <c r="CS48" s="51"/>
+      <c r="CT48" s="51"/>
+      <c r="CU48" s="51"/>
+      <c r="CV48" s="51"/>
+      <c r="CW48" s="51"/>
+      <c r="CX48" s="51"/>
+      <c r="CY48" s="51"/>
+      <c r="CZ48" s="51"/>
       <c r="DA48" s="12"/>
     </row>
-    <row r="49" spans="1:105" ht="24" customHeight="1">
-      <c r="A49" s="95"/>
+    <row r="49" spans="1:105" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="87"/>
       <c r="B49" s="9"/>
       <c r="C49" s="10"/>
       <c r="D49" s="41"/>
@@ -7468,29 +7472,29 @@
       <c r="AA49" s="43"/>
       <c r="AB49" s="43"/>
       <c r="AC49" s="43"/>
-      <c r="AD49" s="122"/>
-      <c r="AE49" s="122"/>
-      <c r="AF49" s="122"/>
-      <c r="AG49" s="122"/>
-      <c r="AH49" s="122"/>
-      <c r="AI49" s="122"/>
-      <c r="AJ49" s="122"/>
-      <c r="AK49" s="122"/>
-      <c r="AL49" s="122"/>
-      <c r="AM49" s="122"/>
-      <c r="AN49" s="122"/>
-      <c r="AO49" s="122"/>
-      <c r="AP49" s="122"/>
-      <c r="AQ49" s="122"/>
-      <c r="AR49" s="122"/>
-      <c r="AS49" s="122"/>
-      <c r="AT49" s="122"/>
-      <c r="AU49" s="122"/>
-      <c r="AV49" s="122"/>
-      <c r="AW49" s="122"/>
-      <c r="AX49" s="122"/>
-      <c r="AY49" s="122"/>
-      <c r="AZ49" s="122"/>
+      <c r="AD49" s="52"/>
+      <c r="AE49" s="52"/>
+      <c r="AF49" s="52"/>
+      <c r="AG49" s="52"/>
+      <c r="AH49" s="52"/>
+      <c r="AI49" s="52"/>
+      <c r="AJ49" s="52"/>
+      <c r="AK49" s="52"/>
+      <c r="AL49" s="52"/>
+      <c r="AM49" s="52"/>
+      <c r="AN49" s="52"/>
+      <c r="AO49" s="52"/>
+      <c r="AP49" s="52"/>
+      <c r="AQ49" s="52"/>
+      <c r="AR49" s="52"/>
+      <c r="AS49" s="52"/>
+      <c r="AT49" s="52"/>
+      <c r="AU49" s="52"/>
+      <c r="AV49" s="52"/>
+      <c r="AW49" s="52"/>
+      <c r="AX49" s="52"/>
+      <c r="AY49" s="52"/>
+      <c r="AZ49" s="52"/>
       <c r="BA49" s="43"/>
       <c r="BB49" s="44" t="s">
         <v>51</v>
@@ -7510,45 +7514,45 @@
       <c r="BO49" s="43"/>
       <c r="BP49" s="43"/>
       <c r="BQ49" s="43"/>
-      <c r="BR49" s="122"/>
-      <c r="BS49" s="122"/>
-      <c r="BT49" s="122"/>
-      <c r="BU49" s="122"/>
-      <c r="BV49" s="122"/>
-      <c r="BW49" s="122"/>
-      <c r="BX49" s="122"/>
-      <c r="BY49" s="122"/>
-      <c r="BZ49" s="122"/>
-      <c r="CA49" s="122"/>
-      <c r="CB49" s="122"/>
-      <c r="CC49" s="122"/>
-      <c r="CD49" s="122"/>
-      <c r="CE49" s="122"/>
-      <c r="CF49" s="122"/>
-      <c r="CG49" s="122"/>
-      <c r="CH49" s="122"/>
-      <c r="CI49" s="122"/>
-      <c r="CJ49" s="122"/>
-      <c r="CK49" s="122"/>
-      <c r="CL49" s="122"/>
-      <c r="CM49" s="122"/>
-      <c r="CN49" s="122"/>
-      <c r="CO49" s="122"/>
-      <c r="CP49" s="122"/>
-      <c r="CQ49" s="122"/>
-      <c r="CR49" s="122"/>
-      <c r="CS49" s="122"/>
-      <c r="CT49" s="122"/>
-      <c r="CU49" s="122"/>
-      <c r="CV49" s="122"/>
-      <c r="CW49" s="122"/>
-      <c r="CX49" s="122"/>
-      <c r="CY49" s="122"/>
+      <c r="BR49" s="52"/>
+      <c r="BS49" s="52"/>
+      <c r="BT49" s="52"/>
+      <c r="BU49" s="52"/>
+      <c r="BV49" s="52"/>
+      <c r="BW49" s="52"/>
+      <c r="BX49" s="52"/>
+      <c r="BY49" s="52"/>
+      <c r="BZ49" s="52"/>
+      <c r="CA49" s="52"/>
+      <c r="CB49" s="52"/>
+      <c r="CC49" s="52"/>
+      <c r="CD49" s="52"/>
+      <c r="CE49" s="52"/>
+      <c r="CF49" s="52"/>
+      <c r="CG49" s="52"/>
+      <c r="CH49" s="52"/>
+      <c r="CI49" s="52"/>
+      <c r="CJ49" s="52"/>
+      <c r="CK49" s="52"/>
+      <c r="CL49" s="52"/>
+      <c r="CM49" s="52"/>
+      <c r="CN49" s="52"/>
+      <c r="CO49" s="52"/>
+      <c r="CP49" s="52"/>
+      <c r="CQ49" s="52"/>
+      <c r="CR49" s="52"/>
+      <c r="CS49" s="52"/>
+      <c r="CT49" s="52"/>
+      <c r="CU49" s="52"/>
+      <c r="CV49" s="52"/>
+      <c r="CW49" s="52"/>
+      <c r="CX49" s="52"/>
+      <c r="CY49" s="52"/>
       <c r="CZ49" s="45"/>
       <c r="DA49" s="46"/>
     </row>
-    <row r="50" spans="1:105" ht="14.25" customHeight="1">
-      <c r="A50" s="95"/>
+    <row r="50" spans="1:105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="87"/>
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
       <c r="D50" s="41"/>
@@ -7577,31 +7581,31 @@
       <c r="AA50" s="10"/>
       <c r="AB50" s="10"/>
       <c r="AC50" s="10"/>
-      <c r="AD50" s="68" t="s">
+      <c r="AD50" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="AE50" s="69"/>
-      <c r="AF50" s="69"/>
-      <c r="AG50" s="69"/>
-      <c r="AH50" s="69"/>
-      <c r="AI50" s="69"/>
-      <c r="AJ50" s="69"/>
-      <c r="AK50" s="69"/>
-      <c r="AL50" s="69"/>
-      <c r="AM50" s="69"/>
-      <c r="AN50" s="69"/>
-      <c r="AO50" s="69"/>
-      <c r="AP50" s="69"/>
-      <c r="AQ50" s="69"/>
-      <c r="AR50" s="69"/>
-      <c r="AS50" s="69"/>
-      <c r="AT50" s="69"/>
-      <c r="AU50" s="69"/>
-      <c r="AV50" s="69"/>
-      <c r="AW50" s="69"/>
-      <c r="AX50" s="69"/>
-      <c r="AY50" s="69"/>
-      <c r="AZ50" s="69"/>
+      <c r="AE50" s="54"/>
+      <c r="AF50" s="54"/>
+      <c r="AG50" s="54"/>
+      <c r="AH50" s="54"/>
+      <c r="AI50" s="54"/>
+      <c r="AJ50" s="54"/>
+      <c r="AK50" s="54"/>
+      <c r="AL50" s="54"/>
+      <c r="AM50" s="54"/>
+      <c r="AN50" s="54"/>
+      <c r="AO50" s="54"/>
+      <c r="AP50" s="54"/>
+      <c r="AQ50" s="54"/>
+      <c r="AR50" s="54"/>
+      <c r="AS50" s="54"/>
+      <c r="AT50" s="54"/>
+      <c r="AU50" s="54"/>
+      <c r="AV50" s="54"/>
+      <c r="AW50" s="54"/>
+      <c r="AX50" s="54"/>
+      <c r="AY50" s="54"/>
+      <c r="AZ50" s="54"/>
       <c r="BA50" s="10"/>
       <c r="BB50" s="10"/>
       <c r="BC50" s="10"/>
@@ -7656,223 +7660,223 @@
       <c r="CZ50" s="41"/>
       <c r="DA50" s="46"/>
     </row>
-    <row r="51" spans="1:105" ht="13.15" customHeight="1">
-      <c r="A51" s="95"/>
+    <row r="51" spans="1:105" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="87"/>
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
       <c r="D51" s="41"/>
       <c r="E51" s="47"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="62"/>
-      <c r="R51" s="62"/>
-      <c r="S51" s="62"/>
-      <c r="T51" s="62"/>
-      <c r="U51" s="62"/>
-      <c r="V51" s="62"/>
-      <c r="W51" s="62"/>
-      <c r="X51" s="62"/>
-      <c r="Y51" s="62"/>
-      <c r="Z51" s="62"/>
-      <c r="AA51" s="62"/>
-      <c r="AB51" s="62"/>
-      <c r="AC51" s="62"/>
-      <c r="AD51" s="62"/>
-      <c r="AE51" s="62"/>
-      <c r="AF51" s="62"/>
-      <c r="AG51" s="62"/>
-      <c r="AH51" s="62"/>
-      <c r="AI51" s="62"/>
-      <c r="AJ51" s="62"/>
-      <c r="AK51" s="62"/>
-      <c r="AL51" s="62"/>
-      <c r="AM51" s="62"/>
-      <c r="AN51" s="62"/>
-      <c r="AO51" s="62"/>
-      <c r="AP51" s="62"/>
-      <c r="AQ51" s="62"/>
-      <c r="AR51" s="62"/>
-      <c r="AS51" s="62"/>
-      <c r="AT51" s="62"/>
-      <c r="AU51" s="62"/>
-      <c r="AV51" s="62"/>
-      <c r="AW51" s="62"/>
-      <c r="AX51" s="62"/>
-      <c r="AY51" s="62"/>
-      <c r="AZ51" s="62"/>
-      <c r="BA51" s="62"/>
-      <c r="BB51" s="62"/>
-      <c r="BC51" s="62"/>
-      <c r="BD51" s="62"/>
-      <c r="BE51" s="62"/>
-      <c r="BF51" s="62"/>
-      <c r="BG51" s="62"/>
-      <c r="BH51" s="62"/>
-      <c r="BI51" s="62"/>
-      <c r="BJ51" s="62"/>
-      <c r="BK51" s="62"/>
-      <c r="BL51" s="62"/>
-      <c r="BM51" s="62"/>
-      <c r="BN51" s="62"/>
-      <c r="BO51" s="62"/>
-      <c r="BP51" s="62"/>
-      <c r="BQ51" s="62"/>
-      <c r="BR51" s="62"/>
-      <c r="BS51" s="62"/>
-      <c r="BT51" s="62"/>
-      <c r="BU51" s="62"/>
-      <c r="BV51" s="62"/>
-      <c r="BW51" s="62"/>
-      <c r="BX51" s="62"/>
-      <c r="BY51" s="62"/>
-      <c r="BZ51" s="62"/>
-      <c r="CA51" s="62"/>
-      <c r="CB51" s="62"/>
-      <c r="CC51" s="62"/>
-      <c r="CD51" s="62"/>
-      <c r="CE51" s="62"/>
-      <c r="CF51" s="62"/>
-      <c r="CG51" s="62"/>
-      <c r="CH51" s="62"/>
-      <c r="CI51" s="62"/>
-      <c r="CJ51" s="62"/>
-      <c r="CK51" s="62"/>
-      <c r="CL51" s="62"/>
-      <c r="CM51" s="62"/>
-      <c r="CN51" s="62"/>
-      <c r="CO51" s="62"/>
-      <c r="CP51" s="62"/>
-      <c r="CQ51" s="62"/>
-      <c r="CR51" s="62"/>
-      <c r="CS51" s="62"/>
-      <c r="CT51" s="62"/>
-      <c r="CU51" s="62"/>
-      <c r="CV51" s="62"/>
-      <c r="CW51" s="62"/>
-      <c r="CX51" s="62"/>
-      <c r="CY51" s="62"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="55"/>
+      <c r="P51" s="55"/>
+      <c r="Q51" s="55"/>
+      <c r="R51" s="55"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="55"/>
+      <c r="U51" s="55"/>
+      <c r="V51" s="55"/>
+      <c r="W51" s="55"/>
+      <c r="X51" s="55"/>
+      <c r="Y51" s="55"/>
+      <c r="Z51" s="55"/>
+      <c r="AA51" s="55"/>
+      <c r="AB51" s="55"/>
+      <c r="AC51" s="55"/>
+      <c r="AD51" s="55"/>
+      <c r="AE51" s="55"/>
+      <c r="AF51" s="55"/>
+      <c r="AG51" s="55"/>
+      <c r="AH51" s="55"/>
+      <c r="AI51" s="55"/>
+      <c r="AJ51" s="55"/>
+      <c r="AK51" s="55"/>
+      <c r="AL51" s="55"/>
+      <c r="AM51" s="55"/>
+      <c r="AN51" s="55"/>
+      <c r="AO51" s="55"/>
+      <c r="AP51" s="55"/>
+      <c r="AQ51" s="55"/>
+      <c r="AR51" s="55"/>
+      <c r="AS51" s="55"/>
+      <c r="AT51" s="55"/>
+      <c r="AU51" s="55"/>
+      <c r="AV51" s="55"/>
+      <c r="AW51" s="55"/>
+      <c r="AX51" s="55"/>
+      <c r="AY51" s="55"/>
+      <c r="AZ51" s="55"/>
+      <c r="BA51" s="55"/>
+      <c r="BB51" s="55"/>
+      <c r="BC51" s="55"/>
+      <c r="BD51" s="55"/>
+      <c r="BE51" s="55"/>
+      <c r="BF51" s="55"/>
+      <c r="BG51" s="55"/>
+      <c r="BH51" s="55"/>
+      <c r="BI51" s="55"/>
+      <c r="BJ51" s="55"/>
+      <c r="BK51" s="55"/>
+      <c r="BL51" s="55"/>
+      <c r="BM51" s="55"/>
+      <c r="BN51" s="55"/>
+      <c r="BO51" s="55"/>
+      <c r="BP51" s="55"/>
+      <c r="BQ51" s="55"/>
+      <c r="BR51" s="55"/>
+      <c r="BS51" s="55"/>
+      <c r="BT51" s="55"/>
+      <c r="BU51" s="55"/>
+      <c r="BV51" s="55"/>
+      <c r="BW51" s="55"/>
+      <c r="BX51" s="55"/>
+      <c r="BY51" s="55"/>
+      <c r="BZ51" s="55"/>
+      <c r="CA51" s="55"/>
+      <c r="CB51" s="55"/>
+      <c r="CC51" s="55"/>
+      <c r="CD51" s="55"/>
+      <c r="CE51" s="55"/>
+      <c r="CF51" s="55"/>
+      <c r="CG51" s="55"/>
+      <c r="CH51" s="55"/>
+      <c r="CI51" s="55"/>
+      <c r="CJ51" s="55"/>
+      <c r="CK51" s="55"/>
+      <c r="CL51" s="55"/>
+      <c r="CM51" s="55"/>
+      <c r="CN51" s="55"/>
+      <c r="CO51" s="55"/>
+      <c r="CP51" s="55"/>
+      <c r="CQ51" s="55"/>
+      <c r="CR51" s="55"/>
+      <c r="CS51" s="55"/>
+      <c r="CT51" s="55"/>
+      <c r="CU51" s="55"/>
+      <c r="CV51" s="55"/>
+      <c r="CW51" s="55"/>
+      <c r="CX51" s="55"/>
+      <c r="CY51" s="55"/>
       <c r="CZ51" s="41"/>
       <c r="DA51" s="46"/>
     </row>
-    <row r="52" spans="1:105" ht="12.75" customHeight="1">
-      <c r="A52" s="95"/>
+    <row r="52" spans="1:105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="87"/>
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
       <c r="D52" s="41"/>
-      <c r="E52" s="123" t="s">
+      <c r="E52" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="124"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="124"/>
-      <c r="L52" s="124"/>
-      <c r="M52" s="124"/>
-      <c r="N52" s="124"/>
-      <c r="O52" s="124"/>
-      <c r="P52" s="124"/>
-      <c r="Q52" s="124"/>
-      <c r="R52" s="124"/>
-      <c r="S52" s="124"/>
-      <c r="T52" s="124"/>
-      <c r="U52" s="124"/>
-      <c r="V52" s="124"/>
-      <c r="W52" s="124"/>
-      <c r="X52" s="124"/>
-      <c r="Y52" s="124"/>
-      <c r="Z52" s="124"/>
-      <c r="AA52" s="124"/>
-      <c r="AB52" s="124"/>
-      <c r="AC52" s="124"/>
-      <c r="AD52" s="124"/>
-      <c r="AE52" s="124"/>
-      <c r="AF52" s="124"/>
-      <c r="AG52" s="124"/>
-      <c r="AH52" s="124"/>
-      <c r="AI52" s="124"/>
-      <c r="AJ52" s="124"/>
-      <c r="AK52" s="124"/>
-      <c r="AL52" s="124"/>
-      <c r="AM52" s="124"/>
-      <c r="AN52" s="124"/>
-      <c r="AO52" s="124"/>
-      <c r="AP52" s="124"/>
-      <c r="AQ52" s="124"/>
-      <c r="AR52" s="124"/>
-      <c r="AS52" s="124"/>
-      <c r="AT52" s="124"/>
-      <c r="AU52" s="124"/>
-      <c r="AV52" s="124"/>
-      <c r="AW52" s="124"/>
-      <c r="AX52" s="124"/>
-      <c r="AY52" s="124"/>
-      <c r="AZ52" s="124"/>
-      <c r="BA52" s="124"/>
-      <c r="BB52" s="124"/>
-      <c r="BC52" s="124"/>
-      <c r="BD52" s="124"/>
-      <c r="BE52" s="124"/>
-      <c r="BF52" s="124"/>
-      <c r="BG52" s="124"/>
-      <c r="BH52" s="124"/>
-      <c r="BI52" s="124"/>
-      <c r="BJ52" s="124"/>
-      <c r="BK52" s="124"/>
-      <c r="BL52" s="124"/>
-      <c r="BM52" s="124"/>
-      <c r="BN52" s="124"/>
-      <c r="BO52" s="124"/>
-      <c r="BP52" s="124"/>
-      <c r="BQ52" s="124"/>
-      <c r="BR52" s="124"/>
-      <c r="BS52" s="124"/>
-      <c r="BT52" s="124"/>
-      <c r="BU52" s="124"/>
-      <c r="BV52" s="124"/>
-      <c r="BW52" s="124"/>
-      <c r="BX52" s="124"/>
-      <c r="BY52" s="124"/>
-      <c r="BZ52" s="124"/>
-      <c r="CA52" s="124"/>
-      <c r="CB52" s="124"/>
-      <c r="CC52" s="124"/>
-      <c r="CD52" s="124"/>
-      <c r="CE52" s="124"/>
-      <c r="CF52" s="124"/>
-      <c r="CG52" s="124"/>
-      <c r="CH52" s="124"/>
-      <c r="CI52" s="124"/>
-      <c r="CJ52" s="124"/>
-      <c r="CK52" s="124"/>
-      <c r="CL52" s="124"/>
-      <c r="CM52" s="124"/>
-      <c r="CN52" s="124"/>
-      <c r="CO52" s="124"/>
-      <c r="CP52" s="124"/>
-      <c r="CQ52" s="124"/>
-      <c r="CR52" s="124"/>
-      <c r="CS52" s="124"/>
-      <c r="CT52" s="124"/>
-      <c r="CU52" s="124"/>
-      <c r="CV52" s="124"/>
-      <c r="CW52" s="124"/>
-      <c r="CX52" s="124"/>
-      <c r="CY52" s="124"/>
-      <c r="CZ52" s="125"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="57"/>
+      <c r="S52" s="57"/>
+      <c r="T52" s="57"/>
+      <c r="U52" s="57"/>
+      <c r="V52" s="57"/>
+      <c r="W52" s="57"/>
+      <c r="X52" s="57"/>
+      <c r="Y52" s="57"/>
+      <c r="Z52" s="57"/>
+      <c r="AA52" s="57"/>
+      <c r="AB52" s="57"/>
+      <c r="AC52" s="57"/>
+      <c r="AD52" s="57"/>
+      <c r="AE52" s="57"/>
+      <c r="AF52" s="57"/>
+      <c r="AG52" s="57"/>
+      <c r="AH52" s="57"/>
+      <c r="AI52" s="57"/>
+      <c r="AJ52" s="57"/>
+      <c r="AK52" s="57"/>
+      <c r="AL52" s="57"/>
+      <c r="AM52" s="57"/>
+      <c r="AN52" s="57"/>
+      <c r="AO52" s="57"/>
+      <c r="AP52" s="57"/>
+      <c r="AQ52" s="57"/>
+      <c r="AR52" s="57"/>
+      <c r="AS52" s="57"/>
+      <c r="AT52" s="57"/>
+      <c r="AU52" s="57"/>
+      <c r="AV52" s="57"/>
+      <c r="AW52" s="57"/>
+      <c r="AX52" s="57"/>
+      <c r="AY52" s="57"/>
+      <c r="AZ52" s="57"/>
+      <c r="BA52" s="57"/>
+      <c r="BB52" s="57"/>
+      <c r="BC52" s="57"/>
+      <c r="BD52" s="57"/>
+      <c r="BE52" s="57"/>
+      <c r="BF52" s="57"/>
+      <c r="BG52" s="57"/>
+      <c r="BH52" s="57"/>
+      <c r="BI52" s="57"/>
+      <c r="BJ52" s="57"/>
+      <c r="BK52" s="57"/>
+      <c r="BL52" s="57"/>
+      <c r="BM52" s="57"/>
+      <c r="BN52" s="57"/>
+      <c r="BO52" s="57"/>
+      <c r="BP52" s="57"/>
+      <c r="BQ52" s="57"/>
+      <c r="BR52" s="57"/>
+      <c r="BS52" s="57"/>
+      <c r="BT52" s="57"/>
+      <c r="BU52" s="57"/>
+      <c r="BV52" s="57"/>
+      <c r="BW52" s="57"/>
+      <c r="BX52" s="57"/>
+      <c r="BY52" s="57"/>
+      <c r="BZ52" s="57"/>
+      <c r="CA52" s="57"/>
+      <c r="CB52" s="57"/>
+      <c r="CC52" s="57"/>
+      <c r="CD52" s="57"/>
+      <c r="CE52" s="57"/>
+      <c r="CF52" s="57"/>
+      <c r="CG52" s="57"/>
+      <c r="CH52" s="57"/>
+      <c r="CI52" s="57"/>
+      <c r="CJ52" s="57"/>
+      <c r="CK52" s="57"/>
+      <c r="CL52" s="57"/>
+      <c r="CM52" s="57"/>
+      <c r="CN52" s="57"/>
+      <c r="CO52" s="57"/>
+      <c r="CP52" s="57"/>
+      <c r="CQ52" s="57"/>
+      <c r="CR52" s="57"/>
+      <c r="CS52" s="57"/>
+      <c r="CT52" s="57"/>
+      <c r="CU52" s="57"/>
+      <c r="CV52" s="57"/>
+      <c r="CW52" s="57"/>
+      <c r="CX52" s="57"/>
+      <c r="CY52" s="57"/>
+      <c r="CZ52" s="58"/>
       <c r="DA52" s="46"/>
     </row>
-    <row r="53" spans="1:105" ht="14.1" customHeight="1">
+    <row r="53" spans="1:105" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48"/>
       <c r="B53" s="32"/>
       <c r="C53" s="19"/>
@@ -7981,6 +7985,109 @@
     </row>
   </sheetData>
   <mergeCells count="127">
+    <mergeCell ref="CF10:CZ13"/>
+    <mergeCell ref="S13:AJ13"/>
+    <mergeCell ref="AK13:AX13"/>
+    <mergeCell ref="AY13:BO13"/>
+    <mergeCell ref="F3:BV3"/>
+    <mergeCell ref="BW3:CC3"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="V4:CC4"/>
+    <mergeCell ref="F5:U5"/>
+    <mergeCell ref="V5:CC5"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:AB14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF14:AK14"/>
+    <mergeCell ref="AM14:AQ14"/>
+    <mergeCell ref="AR14:AT14"/>
+    <mergeCell ref="F6:CC6"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="V7:CC7"/>
+    <mergeCell ref="F8:U8"/>
+    <mergeCell ref="V8:CC8"/>
+    <mergeCell ref="AV14:AX14"/>
+    <mergeCell ref="AY14:BA14"/>
+    <mergeCell ref="BC14:BG14"/>
+    <mergeCell ref="BI14:BJ14"/>
+    <mergeCell ref="BK14:BU14"/>
+    <mergeCell ref="AR15:BE15"/>
+    <mergeCell ref="BF15:BG15"/>
+    <mergeCell ref="BI15:BQ15"/>
+    <mergeCell ref="BR15:BT15"/>
+    <mergeCell ref="E18:AQ19"/>
+    <mergeCell ref="AR18:CC19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="AR22:BE22"/>
+    <mergeCell ref="M24:W24"/>
+    <mergeCell ref="X24:AH24"/>
+    <mergeCell ref="AI24:AU24"/>
+    <mergeCell ref="AW24:AY24"/>
+    <mergeCell ref="AZ24:BK24"/>
+    <mergeCell ref="BM24:BN24"/>
+    <mergeCell ref="BX27:DA27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:AC28"/>
+    <mergeCell ref="AD28:AX28"/>
+    <mergeCell ref="AY28:BC28"/>
+    <mergeCell ref="BD28:BJ28"/>
+    <mergeCell ref="BN28:BW28"/>
+    <mergeCell ref="BX28:DA28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:AC27"/>
+    <mergeCell ref="CP24:CQ24"/>
+    <mergeCell ref="CR24:DA24"/>
+    <mergeCell ref="BW25:CJ25"/>
+    <mergeCell ref="CK25:CM25"/>
+    <mergeCell ref="CO25:CW25"/>
+    <mergeCell ref="CX25:CZ25"/>
+    <mergeCell ref="BO24:BR24"/>
+    <mergeCell ref="BT24:BW24"/>
+    <mergeCell ref="BX24:BZ24"/>
+    <mergeCell ref="CB24:CD24"/>
+    <mergeCell ref="CE24:CG24"/>
+    <mergeCell ref="CI24:CN24"/>
+    <mergeCell ref="AD27:AX27"/>
+    <mergeCell ref="AY27:BC27"/>
+    <mergeCell ref="BD27:BM27"/>
+    <mergeCell ref="BN27:BW27"/>
+    <mergeCell ref="A37:A52"/>
+    <mergeCell ref="C37:DA37"/>
+    <mergeCell ref="AR40:BE40"/>
+    <mergeCell ref="M42:W42"/>
+    <mergeCell ref="X42:AH42"/>
+    <mergeCell ref="AI42:AU42"/>
+    <mergeCell ref="BJ30:BS30"/>
+    <mergeCell ref="BU30:BV30"/>
+    <mergeCell ref="BW30:BY30"/>
+    <mergeCell ref="H32:DA32"/>
+    <mergeCell ref="H33:DA33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="Q34:AH34"/>
+    <mergeCell ref="AI34:AK34"/>
+    <mergeCell ref="AL34:AP34"/>
+    <mergeCell ref="AQ34:AR34"/>
+    <mergeCell ref="M30:U30"/>
+    <mergeCell ref="V30:AB30"/>
+    <mergeCell ref="AC30:AH30"/>
+    <mergeCell ref="AI30:AK30"/>
+    <mergeCell ref="AL30:AW30"/>
+    <mergeCell ref="BF30:BH30"/>
+    <mergeCell ref="AW42:AY42"/>
+    <mergeCell ref="AZ42:BK42"/>
+    <mergeCell ref="BM42:BN42"/>
+    <mergeCell ref="BO42:BR42"/>
+    <mergeCell ref="BT42:BW42"/>
+    <mergeCell ref="BX42:BZ42"/>
+    <mergeCell ref="AS34:BF34"/>
+    <mergeCell ref="BK34:DA34"/>
+    <mergeCell ref="AS35:BF35"/>
+    <mergeCell ref="BK35:DA35"/>
+    <mergeCell ref="CB42:CD42"/>
+    <mergeCell ref="CE42:CG42"/>
+    <mergeCell ref="CI42:CN42"/>
+    <mergeCell ref="CP42:CQ42"/>
+    <mergeCell ref="CR42:DA42"/>
     <mergeCell ref="E48:CZ48"/>
     <mergeCell ref="AD49:AZ49"/>
     <mergeCell ref="BR49:CY49"/>
@@ -8005,109 +8112,6 @@
     <mergeCell ref="AY45:BC45"/>
     <mergeCell ref="BD45:BM45"/>
     <mergeCell ref="BN45:BW45"/>
-    <mergeCell ref="AL30:AW30"/>
-    <mergeCell ref="BF30:BH30"/>
-    <mergeCell ref="AW42:AY42"/>
-    <mergeCell ref="AZ42:BK42"/>
-    <mergeCell ref="BM42:BN42"/>
-    <mergeCell ref="BO42:BR42"/>
-    <mergeCell ref="BT42:BW42"/>
-    <mergeCell ref="BX42:BZ42"/>
-    <mergeCell ref="AS34:BF34"/>
-    <mergeCell ref="BK34:DA34"/>
-    <mergeCell ref="AS35:BF35"/>
-    <mergeCell ref="BK35:DA35"/>
-    <mergeCell ref="CB42:CD42"/>
-    <mergeCell ref="CE42:CG42"/>
-    <mergeCell ref="CI42:CN42"/>
-    <mergeCell ref="CP42:CQ42"/>
-    <mergeCell ref="CR42:DA42"/>
-    <mergeCell ref="AD27:AX27"/>
-    <mergeCell ref="AY27:BC27"/>
-    <mergeCell ref="BD27:BM27"/>
-    <mergeCell ref="BN27:BW27"/>
-    <mergeCell ref="A37:A52"/>
-    <mergeCell ref="C37:DA37"/>
-    <mergeCell ref="AR40:BE40"/>
-    <mergeCell ref="M42:W42"/>
-    <mergeCell ref="X42:AH42"/>
-    <mergeCell ref="AI42:AU42"/>
-    <mergeCell ref="BJ30:BS30"/>
-    <mergeCell ref="BU30:BV30"/>
-    <mergeCell ref="BW30:BY30"/>
-    <mergeCell ref="H32:DA32"/>
-    <mergeCell ref="H33:DA33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="Q34:AH34"/>
-    <mergeCell ref="AI34:AK34"/>
-    <mergeCell ref="AL34:AP34"/>
-    <mergeCell ref="AQ34:AR34"/>
-    <mergeCell ref="M30:U30"/>
-    <mergeCell ref="V30:AB30"/>
-    <mergeCell ref="AC30:AH30"/>
-    <mergeCell ref="AI30:AK30"/>
-    <mergeCell ref="CP24:CQ24"/>
-    <mergeCell ref="CR24:DA24"/>
-    <mergeCell ref="BW25:CJ25"/>
-    <mergeCell ref="CK25:CM25"/>
-    <mergeCell ref="CO25:CW25"/>
-    <mergeCell ref="CX25:CZ25"/>
-    <mergeCell ref="BO24:BR24"/>
-    <mergeCell ref="BT24:BW24"/>
-    <mergeCell ref="BX24:BZ24"/>
-    <mergeCell ref="CB24:CD24"/>
-    <mergeCell ref="CE24:CG24"/>
-    <mergeCell ref="CI24:CN24"/>
-    <mergeCell ref="AR15:BE15"/>
-    <mergeCell ref="BF15:BG15"/>
-    <mergeCell ref="BI15:BQ15"/>
-    <mergeCell ref="BR15:BT15"/>
-    <mergeCell ref="E18:AQ19"/>
-    <mergeCell ref="AR18:CC19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="AR22:BE22"/>
-    <mergeCell ref="M24:W24"/>
-    <mergeCell ref="X24:AH24"/>
-    <mergeCell ref="AI24:AU24"/>
-    <mergeCell ref="AW24:AY24"/>
-    <mergeCell ref="AZ24:BK24"/>
-    <mergeCell ref="BM24:BN24"/>
-    <mergeCell ref="BX27:DA27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:AC28"/>
-    <mergeCell ref="AD28:AX28"/>
-    <mergeCell ref="AY28:BC28"/>
-    <mergeCell ref="BD28:BJ28"/>
-    <mergeCell ref="BN28:BW28"/>
-    <mergeCell ref="BX28:DA28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:AC27"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:AB14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AF14:AK14"/>
-    <mergeCell ref="AM14:AQ14"/>
-    <mergeCell ref="AR14:AT14"/>
-    <mergeCell ref="F6:CC6"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="V7:CC7"/>
-    <mergeCell ref="F8:U8"/>
-    <mergeCell ref="V8:CC8"/>
-    <mergeCell ref="AV14:AX14"/>
-    <mergeCell ref="AY14:BA14"/>
-    <mergeCell ref="BC14:BG14"/>
-    <mergeCell ref="BI14:BJ14"/>
-    <mergeCell ref="BK14:BU14"/>
-    <mergeCell ref="CF10:CZ13"/>
-    <mergeCell ref="S13:AJ13"/>
-    <mergeCell ref="AK13:AX13"/>
-    <mergeCell ref="AY13:BO13"/>
-    <mergeCell ref="F3:BV3"/>
-    <mergeCell ref="BW3:CC3"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="V4:CC4"/>
-    <mergeCell ref="F5:U5"/>
-    <mergeCell ref="V5:CC5"/>
   </mergeCells>
   <pageMargins left="0.19685" right="0.19685" top="0.19685" bottom="0.19685" header="0" footer="0"/>
   <pageSetup scale="83" orientation="portrait"/>
